--- a/003.python_study/006.project/001.sql_approval/009.________.需求确定/SQL审核分析文件汇总.xlsx
+++ b/003.python_study/006.project/001.sql_approval/009.________.需求确定/SQL审核分析文件汇总.xlsx
@@ -5573,7 +5573,7 @@
   <dimension ref="B3:F164"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D86" sqref="D86"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/003.python_study/006.project/001.sql_approval/009.________.需求确定/SQL审核分析文件汇总.xlsx
+++ b/003.python_study/006.project/001.sql_approval/009.________.需求确定/SQL审核分析文件汇总.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="617">
   <si>
     <t>平台</t>
   </si>
@@ -770,6 +770,12 @@
     </r>
   </si>
   <si>
+    <t>详情</t>
+  </si>
+  <si>
+    <t>查看详情</t>
+  </si>
+  <si>
     <t>添加</t>
   </si>
   <si>
@@ -1196,9 +1202,6 @@
   </si>
   <si>
     <t>数据库类型</t>
-  </si>
-  <si>
-    <t>详情</t>
   </si>
   <si>
     <r>
@@ -3836,7 +3839,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3932,6 +3935,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4528,55 +4534,55 @@
   </cols>
   <sheetData>
     <row r="4" ht="20.25" spans="2:18">
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="77" t="s">
+      <c r="C4" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="77" t="s">
+      <c r="D4" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="77" t="s">
+      <c r="E4" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="77" t="s">
+      <c r="F4" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="77" t="s">
+      <c r="G4" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="77" t="s">
+      <c r="H4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="77" t="s">
+      <c r="I4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="77" t="s">
+      <c r="J4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="77" t="s">
+      <c r="L4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="77" t="s">
+      <c r="M4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="77" t="s">
+      <c r="O4" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="77" t="s">
+      <c r="Q4" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="R4" s="77" t="s">
+      <c r="R4" s="78" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4590,16 +4596,16 @@
       <c r="D5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="78" t="s">
+      <c r="E5" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="78" t="s">
+      <c r="F5" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="78" t="s">
+      <c r="G5" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="79" t="s">
+      <c r="H5" s="80" t="s">
         <v>23</v>
       </c>
       <c r="I5" s="9" t="s">
@@ -4608,7 +4614,7 @@
       <c r="J5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="94" t="s">
+      <c r="K5" s="95" t="s">
         <v>25</v>
       </c>
       <c r="L5" s="11" t="s">
@@ -4637,10 +4643,10 @@
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="80"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="81"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="12" t="s">
@@ -4658,14 +4664,14 @@
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="80"/>
+      <c r="E7" s="81"/>
       <c r="F7" s="10" t="s">
         <v>31</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="80"/>
+      <c r="H7" s="81"/>
       <c r="I7" s="10" t="s">
         <v>33</v>
       </c>
@@ -4687,12 +4693,12 @@
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
-      <c r="E8" s="81"/>
+      <c r="E8" s="82"/>
       <c r="F8" s="10" t="s">
         <v>35</v>
       </c>
       <c r="G8" s="10"/>
-      <c r="H8" s="81"/>
+      <c r="H8" s="82"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="9"/>
@@ -4705,26 +4711,26 @@
       <c r="R8" s="10"/>
     </row>
     <row r="9" ht="29" customHeight="1" spans="2:18">
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="82" t="s">
+      <c r="C9" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="78" t="s">
+      <c r="D9" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="82" t="s">
+      <c r="E9" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="83" t="s">
+      <c r="F9" s="84" t="s">
         <v>39</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
-      <c r="K9" s="82" t="s">
+      <c r="K9" s="83" t="s">
         <v>40</v>
       </c>
       <c r="L9" s="9"/>
@@ -4736,10 +4742,10 @@
       <c r="R9" s="9"/>
     </row>
     <row r="10" spans="2:18">
-      <c r="B10" s="80"/>
-      <c r="C10" s="84"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
       <c r="F10" s="9" t="s">
         <v>35</v>
       </c>
@@ -4747,7 +4753,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
-      <c r="K10" s="95"/>
+      <c r="K10" s="96"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
@@ -4757,10 +4763,10 @@
       <c r="R10" s="9"/>
     </row>
     <row r="11" spans="2:18">
-      <c r="B11" s="80"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
       <c r="F11" s="9" t="s">
         <v>31</v>
       </c>
@@ -4768,7 +4774,7 @@
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
-      <c r="K11" s="95"/>
+      <c r="K11" s="96"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
@@ -4778,10 +4784,10 @@
       <c r="R11" s="9"/>
     </row>
     <row r="12" ht="135" customHeight="1" spans="2:18">
-      <c r="B12" s="81"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
       <c r="F12" s="9" t="s">
         <v>41</v>
       </c>
@@ -4789,7 +4795,7 @@
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
-      <c r="K12" s="96"/>
+      <c r="K12" s="97"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
@@ -4799,13 +4805,13 @@
       <c r="R12" s="9"/>
     </row>
     <row r="13" spans="2:18">
-      <c r="B13" s="86" t="s">
+      <c r="B13" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="87" t="s">
+      <c r="C13" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="88"/>
+      <c r="D13" s="89"/>
       <c r="E13" s="23"/>
       <c r="F13" s="23"/>
       <c r="G13" s="23"/>
@@ -4822,9 +4828,9 @@
       <c r="R13" s="23"/>
     </row>
     <row r="14" spans="2:18">
-      <c r="B14" s="89"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="90"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="91"/>
       <c r="E14" s="23"/>
       <c r="F14" s="23"/>
       <c r="G14" s="23"/>
@@ -4841,9 +4847,9 @@
       <c r="R14" s="23"/>
     </row>
     <row r="15" spans="2:18">
-      <c r="B15" s="89"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="90"/>
+      <c r="B15" s="90"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="91"/>
       <c r="E15" s="23"/>
       <c r="F15" s="23"/>
       <c r="G15" s="23"/>
@@ -4860,9 +4866,9 @@
       <c r="R15" s="23"/>
     </row>
     <row r="16" spans="2:18">
-      <c r="B16" s="91"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="92"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="93"/>
       <c r="E16" s="23"/>
       <c r="F16" s="23"/>
       <c r="G16" s="23"/>
@@ -4882,11 +4888,11 @@
       <c r="B17" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="87" t="s">
+      <c r="C17" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="94"/>
       <c r="F17" s="23" t="s">
         <v>44</v>
       </c>
@@ -4894,9 +4900,9 @@
       <c r="H17" s="22">
         <v>171</v>
       </c>
-      <c r="I17" s="97"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="98"/>
+      <c r="I17" s="98"/>
+      <c r="J17" s="89"/>
+      <c r="K17" s="99"/>
       <c r="L17" s="23"/>
       <c r="M17" s="23"/>
       <c r="N17" s="23"/>
@@ -4907,17 +4913,17 @@
     </row>
     <row r="18" spans="2:18">
       <c r="B18" s="22"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="94"/>
       <c r="F18" s="23" t="s">
         <v>35</v>
       </c>
       <c r="G18" s="23"/>
       <c r="H18" s="22"/>
-      <c r="I18" s="97"/>
-      <c r="J18" s="90"/>
-      <c r="K18" s="99"/>
+      <c r="I18" s="98"/>
+      <c r="J18" s="91"/>
+      <c r="K18" s="100"/>
       <c r="L18" s="23"/>
       <c r="M18" s="23"/>
       <c r="N18" s="23"/>
@@ -4928,17 +4934,17 @@
     </row>
     <row r="19" spans="2:18">
       <c r="B19" s="22"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="94"/>
       <c r="F19" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G19" s="23"/>
       <c r="H19" s="22"/>
-      <c r="I19" s="97"/>
-      <c r="J19" s="90"/>
-      <c r="K19" s="99"/>
+      <c r="I19" s="98"/>
+      <c r="J19" s="91"/>
+      <c r="K19" s="100"/>
       <c r="L19" s="23"/>
       <c r="M19" s="23"/>
       <c r="N19" s="23"/>
@@ -4949,17 +4955,17 @@
     </row>
     <row r="20" ht="78" customHeight="1" spans="2:18">
       <c r="B20" s="22"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="93"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="94"/>
       <c r="F20" s="23" t="s">
         <v>41</v>
       </c>
       <c r="G20" s="23"/>
       <c r="H20" s="22"/>
-      <c r="I20" s="97"/>
-      <c r="J20" s="92"/>
-      <c r="K20" s="100"/>
+      <c r="I20" s="98"/>
+      <c r="J20" s="93"/>
+      <c r="K20" s="101"/>
       <c r="L20" s="23"/>
       <c r="M20" s="23"/>
       <c r="N20" s="23"/>
@@ -5018,11 +5024,11 @@
   </cols>
   <sheetData>
     <row r="2" ht="26" customHeight="1" spans="2:3">
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
     </row>
     <row r="3" spans="2:3">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="33" t="s">
         <v>45</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -5030,51 +5036,51 @@
       </c>
     </row>
     <row r="4" ht="40.5" spans="2:3">
-      <c r="B4" s="32"/>
-      <c r="C4" s="75" t="s">
+      <c r="B4" s="33"/>
+      <c r="C4" s="76" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="32"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" s="32"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="7" ht="27" spans="2:3">
-      <c r="B7" s="32"/>
-      <c r="C7" s="75" t="s">
+      <c r="B7" s="33"/>
+      <c r="C7" s="76" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="32"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="9" ht="13" customHeight="1" spans="2:3">
-      <c r="B9" s="32"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="10" spans="2:3">
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="76" t="s">
+      <c r="C10" s="77" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="11" spans="2:3">
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="35" t="s">
         <v>54</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -5111,25 +5117,25 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:3">
-      <c r="C5" s="57"/>
+      <c r="C5" s="58"/>
     </row>
     <row r="6" ht="61" customHeight="1" spans="2:7">
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="D6" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
     </row>
     <row r="7" ht="99" customHeight="1" spans="2:7">
-      <c r="B7" s="61"/>
-      <c r="C7" s="59" t="s">
+      <c r="B7" s="62"/>
+      <c r="C7" s="60" t="s">
         <v>59</v>
       </c>
       <c r="D7" s="22" t="s">
@@ -5138,14 +5144,14 @@
       <c r="E7" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="62" t="s">
+      <c r="F7" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="62"/>
+      <c r="G7" s="63"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="61"/>
-      <c r="C8" s="59"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="60"/>
       <c r="D8" s="22"/>
       <c r="E8" s="22" t="s">
         <v>63</v>
@@ -5158,8 +5164,8 @@
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="61"/>
-      <c r="C9" s="59"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="60"/>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
       <c r="F9" s="23" t="s">
@@ -5170,8 +5176,8 @@
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="61"/>
-      <c r="C10" s="59"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="60"/>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
       <c r="F10" s="23" t="s">
@@ -5182,8 +5188,8 @@
       </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="61"/>
-      <c r="C11" s="59"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="60"/>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
       <c r="F11" s="23" t="s">
@@ -5194,8 +5200,8 @@
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="61"/>
-      <c r="C12" s="59"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="60"/>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
       <c r="F12" s="23" t="s">
@@ -5206,8 +5212,8 @@
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="61"/>
-      <c r="C13" s="59"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="60"/>
       <c r="D13" s="22" t="s">
         <v>73</v>
       </c>
@@ -5220,32 +5226,32 @@
       <c r="G13" s="22"/>
     </row>
     <row r="14" ht="15" customHeight="1" spans="2:7">
-      <c r="B14" s="61"/>
-      <c r="C14" s="59"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="60"/>
       <c r="D14" s="22"/>
       <c r="E14" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="63" t="s">
+      <c r="F14" s="64" t="s">
         <v>76</v>
       </c>
       <c r="G14" s="22"/>
     </row>
     <row r="15" ht="31" customHeight="1" spans="2:7">
-      <c r="B15" s="61"/>
-      <c r="C15" s="59"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="60"/>
       <c r="D15" s="22"/>
       <c r="E15" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="63" t="s">
+      <c r="F15" s="64" t="s">
         <v>77</v>
       </c>
       <c r="G15" s="22"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="61"/>
-      <c r="C16" s="59"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="60"/>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
       <c r="F16" s="23" t="s">
@@ -5256,22 +5262,22 @@
       </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="61"/>
-      <c r="C17" s="59"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="60"/>
       <c r="D17" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="E17" s="63" t="s">
+      <c r="E17" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="F17" s="63" t="s">
+      <c r="F17" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="G17" s="63"/>
+      <c r="G17" s="64"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="61"/>
-      <c r="C18" s="59"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="60"/>
       <c r="D18" s="22"/>
       <c r="E18" s="22" t="s">
         <v>83</v>
@@ -5282,8 +5288,8 @@
       <c r="G18" s="22"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="61"/>
-      <c r="C19" s="59"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="60"/>
       <c r="D19" s="22"/>
       <c r="E19" s="22" t="s">
         <v>85</v>
@@ -5294,8 +5300,8 @@
       <c r="G19" s="22"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="61"/>
-      <c r="C20" s="59" t="s">
+      <c r="B20" s="62"/>
+      <c r="C20" s="60" t="s">
         <v>87</v>
       </c>
       <c r="D20" s="27" t="s">
@@ -5306,8 +5312,8 @@
       <c r="G20" s="27"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="61"/>
-      <c r="C21" s="59"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="60"/>
       <c r="D21" s="27" t="s">
         <v>89</v>
       </c>
@@ -5318,8 +5324,8 @@
       <c r="G21" s="27"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="61"/>
-      <c r="C22" s="59"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="60"/>
       <c r="D22" s="27" t="s">
         <v>91</v>
       </c>
@@ -5332,8 +5338,8 @@
       <c r="G22" s="27"/>
     </row>
     <row r="23" ht="19" customHeight="1" spans="2:7">
-      <c r="B23" s="61"/>
-      <c r="C23" s="59"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="60"/>
       <c r="D23" s="27"/>
       <c r="E23" s="28" t="s">
         <v>94</v>
@@ -5344,33 +5350,33 @@
       <c r="G23" s="27"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="61"/>
-      <c r="C24" s="58" t="s">
+      <c r="B24" s="62"/>
+      <c r="C24" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="D24" s="64" t="s">
+      <c r="D24" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="E24" s="65" t="s">
+      <c r="E24" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="F24" s="66"/>
-      <c r="G24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="68"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="61"/>
-      <c r="C25" s="61"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
       <c r="D25" s="27"/>
-      <c r="E25" s="65" t="s">
+      <c r="E25" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="F25" s="66"/>
-      <c r="G25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="68"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="61"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="68" t="s">
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="69" t="s">
         <v>100</v>
       </c>
       <c r="E26" s="27" t="s">
@@ -5380,9 +5386,9 @@
       <c r="G26" s="27"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="61"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="69"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="70"/>
       <c r="E27" s="27" t="s">
         <v>102</v>
       </c>
@@ -5392,9 +5398,9 @@
       <c r="G27" s="27"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="61"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="70"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="71"/>
       <c r="E28" s="27"/>
       <c r="F28" s="27" t="s">
         <v>104</v>
@@ -5402,8 +5408,8 @@
       <c r="G28" s="27"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="61"/>
-      <c r="C29" s="61"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="62"/>
       <c r="D29" s="27" t="s">
         <v>46</v>
       </c>
@@ -5416,8 +5422,8 @@
       <c r="G29" s="27"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="61"/>
-      <c r="C30" s="61"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
       <c r="D30" s="27"/>
       <c r="E30" s="27" t="s">
         <v>107</v>
@@ -5428,8 +5434,8 @@
       <c r="G30" s="27"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="61"/>
-      <c r="C31" s="61"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
       <c r="D31" s="27"/>
       <c r="E31" s="27" t="s">
         <v>102</v>
@@ -5440,29 +5446,29 @@
       <c r="G31" s="27"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="61"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="68" t="s">
+      <c r="B32" s="62"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="69" t="s">
         <v>110</v>
       </c>
-      <c r="E32" s="65" t="s">
+      <c r="E32" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="F32" s="66"/>
-      <c r="G32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="68"/>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="71"/>
-      <c r="C33" s="71"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="65" t="s">
+      <c r="B33" s="72"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="F33" s="66"/>
-      <c r="G33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="68"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="59" t="s">
+      <c r="B34" s="60" t="s">
         <v>113</v>
       </c>
       <c r="C34" s="5" t="s">
@@ -5476,7 +5482,7 @@
       <c r="G34" s="27"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="59"/>
+      <c r="B35" s="60"/>
       <c r="C35" s="5" t="s">
         <v>115</v>
       </c>
@@ -5490,7 +5496,7 @@
       <c r="G35" s="27"/>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="59"/>
+      <c r="B36" s="60"/>
       <c r="C36" s="5" t="s">
         <v>118</v>
       </c>
@@ -5504,7 +5510,7 @@
       <c r="G36" s="27"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="59"/>
+      <c r="B37" s="60"/>
       <c r="C37" s="5" t="s">
         <v>4</v>
       </c>
@@ -5514,8 +5520,8 @@
       <c r="E37" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="F37" s="72"/>
-      <c r="G37" s="73"/>
+      <c r="F37" s="73"/>
+      <c r="G37" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="42">
@@ -5570,10 +5576,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:F164"/>
+  <dimension ref="B3:F165"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -5589,1584 +5595,1596 @@
       <c r="B3" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="36" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="33" t="s">
+      <c r="C4" s="33"/>
+      <c r="D4" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="F4" s="32"/>
+      <c r="F4" s="33"/>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="33" t="s">
+      <c r="C5" s="33"/>
+      <c r="D5" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="F5" s="32"/>
+      <c r="F5" s="33"/>
     </row>
     <row r="6" ht="47" customHeight="1" spans="2:6">
       <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="36" t="s">
+      <c r="C6" s="33"/>
+      <c r="D6" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="F6" s="32"/>
+      <c r="F6" s="33"/>
     </row>
     <row r="7" ht="86" customHeight="1" spans="2:6">
       <c r="B7" s="32"/>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="39" t="s">
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="32"/>
+      <c r="C8" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" s="39"/>
+      <c r="F8" s="33"/>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="E10" s="34" t="s">
+      <c r="C11" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="F10" s="34"/>
-    </row>
-    <row r="11" ht="54" spans="2:6">
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
       <c r="D11" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="E11" s="41" t="s">
+      <c r="E11" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="F11" s="34"/>
+      <c r="F11" s="35"/>
     </row>
     <row r="12" ht="54" spans="2:6">
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="33" t="s">
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="F12" s="35"/>
+    </row>
+    <row r="13" ht="54" spans="2:6">
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="E13" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="37" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="13" ht="54" spans="2:6">
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="E13" s="34" t="s">
+      <c r="F13" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="F13" s="37" t="s">
+    </row>
+    <row r="14" ht="54" spans="2:6">
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="34" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="14" ht="108" spans="2:6">
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="33" t="s">
+      <c r="E14" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="E14" s="34" t="s">
+      <c r="F14" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="F14" s="41" t="s">
+    </row>
+    <row r="15" ht="108" spans="2:6">
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="34" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="33" t="s">
+      <c r="E15" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="F15" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="F15" s="34" t="s">
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="34" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="33" t="s">
+      <c r="E16" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="F16" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="F16" s="34"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="39"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="37" t="s">
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="F17" s="34"/>
+      <c r="E17" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="F17" s="35"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="39"/>
-      <c r="C18" s="34" t="s">
+      <c r="B18" s="40"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="F18" s="35"/>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="40"/>
+      <c r="C19" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="D18" s="32" t="s">
-        <v>154</v>
-      </c>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="39"/>
-      <c r="C19" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="D19" s="34" t="s">
+      <c r="D19" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="E19" s="43"/>
-      <c r="F19" s="44"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="39"/>
-      <c r="C20" s="34" t="s">
+      <c r="B20" s="40"/>
+      <c r="C20" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D20" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="E20" s="43"/>
-      <c r="F20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="45"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="39"/>
-      <c r="C21" s="34" t="s">
+      <c r="B21" s="40"/>
+      <c r="C21" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="D21" s="34" t="s">
+      <c r="D21" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="E21" s="43"/>
-      <c r="F21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="45"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="42"/>
-      <c r="C22" s="34" t="s">
+      <c r="B22" s="40"/>
+      <c r="C22" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="D22" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="E22" s="43"/>
-      <c r="F22" s="44"/>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="45" t="s">
+      <c r="E22" s="44"/>
+      <c r="F22" s="45"/>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="43"/>
+      <c r="C23" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="C25" s="40" t="s">
+      <c r="D23" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="E23" s="44"/>
+      <c r="F23" s="45"/>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="C26" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D25" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="46"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="E26" s="43"/>
-      <c r="F26" s="44"/>
+      <c r="D26" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="46"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="E27" s="43"/>
-      <c r="F27" s="44"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="E27" s="44"/>
+      <c r="F27" s="45"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="46"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="E28" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="F28" s="32"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="E28" s="44"/>
+      <c r="F28" s="45"/>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="46"/>
-      <c r="C29" s="32" t="s">
-        <v>135</v>
-      </c>
+      <c r="B29" s="47"/>
+      <c r="C29" s="43"/>
       <c r="D29" s="33" t="s">
-        <v>168</v>
-      </c>
-      <c r="E29" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="E29" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="F29" s="34"/>
+      <c r="F29" s="33"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="46"/>
-      <c r="C30" s="32"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="33" t="s">
+        <v>137</v>
+      </c>
       <c r="D30" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="E30" s="34" t="s">
+      <c r="E30" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="F30" s="34"/>
+      <c r="F30" s="35"/>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="46"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="33" t="s">
+      <c r="B31" s="47"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
+      <c r="E31" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="F31" s="35"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="46"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="E32" s="34" t="s">
+      <c r="B32" s="47"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="F32" s="34" t="s">
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="47"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="34" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="B33" s="46"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="33" t="s">
+      <c r="E33" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
+      <c r="F33" s="35" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="46"/>
-      <c r="C34" s="32"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="33"/>
       <c r="D34" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="E34" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="F34" s="34"/>
+        <v>178</v>
+      </c>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="46"/>
-      <c r="C35" s="34" t="s">
-        <v>178</v>
-      </c>
-      <c r="D35" s="32" t="s">
+      <c r="B35" s="47"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="E35" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="E35" s="43"/>
-      <c r="F35" s="44"/>
+      <c r="F35" s="35"/>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="46"/>
-      <c r="C36" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="D36" s="32" t="s">
+      <c r="B36" s="47"/>
+      <c r="C36" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="E36" s="43"/>
-      <c r="F36" s="44"/>
+      <c r="D36" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="E36" s="44"/>
+      <c r="F36" s="45"/>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="46"/>
-      <c r="C37" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="D37" s="32" t="s">
+      <c r="B37" s="47"/>
+      <c r="C37" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="E37" s="44"/>
+      <c r="F37" s="45"/>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="47"/>
+      <c r="C38" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="D38" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="E37" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="F37" s="32"/>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="46"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="E38" s="32" t="s">
-        <v>182</v>
-      </c>
-      <c r="F38" s="32"/>
+      <c r="E38" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="F38" s="33"/>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="46"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="E39" s="34" t="s">
-        <v>183</v>
-      </c>
-      <c r="F39" s="34"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="E39" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="F39" s="33"/>
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="47"/>
-      <c r="C40" s="34" t="s">
-        <v>184</v>
-      </c>
-      <c r="D40" s="34" t="s">
+      <c r="C40" s="43"/>
+      <c r="D40" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="E40" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="E40" s="43"/>
-      <c r="F40" s="44"/>
-    </row>
-    <row r="43" spans="2:6">
-      <c r="B43" s="32" t="s">
+      <c r="F40" s="35"/>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="48"/>
+      <c r="C41" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="C43" s="40" t="s">
+      <c r="D41" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="E41" s="44"/>
+      <c r="F41" s="45"/>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="C44" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D43" s="48" t="s">
-        <v>187</v>
-      </c>
-      <c r="E43" s="49"/>
-      <c r="F43" s="50"/>
-    </row>
-    <row r="44" spans="2:6">
-      <c r="B44" s="32"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="48" t="s">
-        <v>188</v>
-      </c>
-      <c r="E44" s="49"/>
-      <c r="F44" s="50"/>
+      <c r="D44" s="49" t="s">
+        <v>189</v>
+      </c>
+      <c r="E44" s="50"/>
+      <c r="F44" s="51"/>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="32"/>
-      <c r="C45" s="42"/>
-      <c r="D45" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="E45" s="49" t="s">
+      <c r="B45" s="33"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="49" t="s">
+        <v>190</v>
+      </c>
+      <c r="E45" s="50"/>
+      <c r="F45" s="51"/>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46" s="33"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="E46" s="50" t="s">
+        <v>191</v>
+      </c>
+      <c r="F46" s="51"/>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="B47" s="33"/>
+      <c r="C47" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="D47" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="E47" s="33"/>
+      <c r="F47" s="33"/>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="B48" s="33"/>
+      <c r="C48" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+    </row>
+    <row r="49" spans="2:6">
+      <c r="B49" s="33"/>
+      <c r="C49" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+    </row>
+    <row r="50" spans="2:6">
+      <c r="B50" s="33"/>
+      <c r="C50" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="D50" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="E50" s="33"/>
+      <c r="F50" s="33"/>
+    </row>
+    <row r="53" spans="2:6">
+      <c r="B53" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="C53" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="D53" s="49" t="s">
         <v>189</v>
       </c>
-      <c r="F45" s="50"/>
-    </row>
-    <row r="46" spans="2:6">
-      <c r="B46" s="32"/>
-      <c r="C46" s="32" t="s">
+      <c r="E53" s="50"/>
+      <c r="F53" s="51"/>
+    </row>
+    <row r="54" spans="2:6">
+      <c r="B54" s="33"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="49" t="s">
+        <v>190</v>
+      </c>
+      <c r="E54" s="50"/>
+      <c r="F54" s="51"/>
+    </row>
+    <row r="55" spans="2:6">
+      <c r="B55" s="33"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="E55" s="50" t="s">
+        <v>191</v>
+      </c>
+      <c r="F55" s="51"/>
+    </row>
+    <row r="56" spans="2:6">
+      <c r="B56" s="33"/>
+      <c r="C56" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="D56" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="E56" s="33"/>
+      <c r="F56" s="33"/>
+    </row>
+    <row r="57" spans="2:6">
+      <c r="B57" s="33"/>
+      <c r="C57" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+    </row>
+    <row r="58" spans="2:6">
+      <c r="B58" s="33"/>
+      <c r="C58" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+    </row>
+    <row r="59" spans="2:6">
+      <c r="B59" s="33"/>
+      <c r="C59" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="D59" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="E59" s="33"/>
+      <c r="F59" s="33"/>
+    </row>
+    <row r="62" spans="2:6">
+      <c r="B62" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C62" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="D62" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="E62" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="F62" s="35"/>
+    </row>
+    <row r="63" spans="2:6">
+      <c r="B63" s="40"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="E63" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="F63" s="35"/>
+    </row>
+    <row r="64" spans="2:6">
+      <c r="B64" s="40"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="E64" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="F64" s="35"/>
+    </row>
+    <row r="65" spans="2:6">
+      <c r="B65" s="40"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="E65" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" s="35"/>
+    </row>
+    <row r="66" spans="2:6">
+      <c r="B66" s="40"/>
+      <c r="C66" s="33"/>
+      <c r="D66" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="E66" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="F66" s="35"/>
+    </row>
+    <row r="67" spans="2:6">
+      <c r="B67" s="40"/>
+      <c r="C67" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="D67" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="E67" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="F67" s="35"/>
+    </row>
+    <row r="68" spans="2:6">
+      <c r="B68" s="40"/>
+      <c r="C68" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="D46" s="36" t="s">
-        <v>190</v>
-      </c>
-      <c r="E46" s="32"/>
-      <c r="F46" s="32"/>
-    </row>
-    <row r="47" spans="2:6">
-      <c r="B47" s="32"/>
-      <c r="C47" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="36"/>
-    </row>
-    <row r="48" spans="2:6">
-      <c r="B48" s="32"/>
-      <c r="C48" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="36"/>
-    </row>
-    <row r="49" spans="2:6">
-      <c r="B49" s="32"/>
-      <c r="C49" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="D49" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="E49" s="32"/>
-      <c r="F49" s="32"/>
-    </row>
-    <row r="52" spans="2:6">
-      <c r="B52" s="32" t="s">
-        <v>192</v>
-      </c>
-      <c r="C52" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="D52" s="48" t="s">
-        <v>187</v>
-      </c>
-      <c r="E52" s="49"/>
-      <c r="F52" s="50"/>
-    </row>
-    <row r="53" spans="2:6">
-      <c r="B53" s="32"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="48" t="s">
-        <v>188</v>
-      </c>
-      <c r="E53" s="49"/>
-      <c r="F53" s="50"/>
-    </row>
-    <row r="54" spans="2:6">
-      <c r="B54" s="32"/>
-      <c r="C54" s="42"/>
-      <c r="D54" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="E54" s="49" t="s">
-        <v>189</v>
-      </c>
-      <c r="F54" s="50"/>
-    </row>
-    <row r="55" spans="2:6">
-      <c r="B55" s="32"/>
-      <c r="C55" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="D55" s="36" t="s">
-        <v>190</v>
-      </c>
-      <c r="E55" s="32"/>
-      <c r="F55" s="32"/>
-    </row>
-    <row r="56" spans="2:6">
-      <c r="B56" s="32"/>
-      <c r="C56" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="D56" s="36"/>
-      <c r="E56" s="36"/>
-      <c r="F56" s="36"/>
-    </row>
-    <row r="57" spans="2:6">
-      <c r="B57" s="32"/>
-      <c r="C57" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="D57" s="36"/>
-      <c r="E57" s="36"/>
-      <c r="F57" s="36"/>
-    </row>
-    <row r="58" spans="2:6">
-      <c r="B58" s="32"/>
-      <c r="C58" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="D58" s="32" t="s">
-        <v>193</v>
-      </c>
-      <c r="E58" s="32"/>
-      <c r="F58" s="32"/>
-    </row>
-    <row r="61" spans="2:6">
-      <c r="B61" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="C61" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="D61" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="E61" s="34" t="s">
-        <v>195</v>
-      </c>
-      <c r="F61" s="34"/>
-    </row>
-    <row r="62" spans="2:6">
-      <c r="B62" s="39"/>
-      <c r="C62" s="32"/>
-      <c r="D62" s="34" t="s">
-        <v>196</v>
-      </c>
-      <c r="E62" s="34" t="s">
-        <v>197</v>
-      </c>
-      <c r="F62" s="34"/>
-    </row>
-    <row r="63" spans="2:6">
-      <c r="B63" s="39"/>
-      <c r="C63" s="32"/>
-      <c r="D63" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="E63" s="34" t="s">
-        <v>198</v>
-      </c>
-      <c r="F63" s="34"/>
-    </row>
-    <row r="64" spans="2:6">
-      <c r="B64" s="39"/>
-      <c r="C64" s="32"/>
-      <c r="D64" s="34" t="s">
-        <v>199</v>
-      </c>
-      <c r="E64" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="F64" s="34"/>
-    </row>
-    <row r="65" spans="2:6">
-      <c r="B65" s="39"/>
-      <c r="C65" s="32"/>
-      <c r="D65" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="E65" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="F65" s="34"/>
-    </row>
-    <row r="66" spans="2:6">
-      <c r="B66" s="39"/>
-      <c r="C66" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="D66" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="E66" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="F66" s="34"/>
-    </row>
-    <row r="67" spans="2:6">
-      <c r="B67" s="39"/>
-      <c r="C67" s="32" t="s">
-        <v>203</v>
-      </c>
-      <c r="D67" s="33" t="s">
-        <v>204</v>
-      </c>
-      <c r="E67" s="34" t="s">
-        <v>195</v>
-      </c>
-      <c r="F67" s="34"/>
-    </row>
-    <row r="68" spans="2:6">
-      <c r="B68" s="39"/>
-      <c r="C68" s="32"/>
       <c r="D68" s="34" t="s">
         <v>205</v>
       </c>
-      <c r="E68" s="43"/>
-      <c r="F68" s="44"/>
+      <c r="E68" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="F68" s="35"/>
     </row>
     <row r="69" spans="2:6">
-      <c r="B69" s="39"/>
-      <c r="C69" s="32"/>
-      <c r="D69" s="33" t="s">
+      <c r="B69" s="40"/>
+      <c r="C69" s="33"/>
+      <c r="D69" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="E69" s="34" t="s">
+      <c r="E69" s="44"/>
+      <c r="F69" s="45"/>
+    </row>
+    <row r="70" spans="2:6">
+      <c r="B70" s="40"/>
+      <c r="C70" s="33"/>
+      <c r="D70" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="E70" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="F69" s="34" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6">
-      <c r="B70" s="39"/>
-      <c r="C70" s="32"/>
-      <c r="D70" s="33" t="s">
+      <c r="F70" s="35" t="s">
         <v>208</v>
       </c>
-      <c r="E70" s="101" t="s">
+    </row>
+    <row r="71" spans="2:6">
+      <c r="B71" s="40"/>
+      <c r="C71" s="33"/>
+      <c r="D71" s="34" t="s">
         <v>209</v>
       </c>
-      <c r="F70" s="34"/>
-    </row>
-    <row r="71" spans="2:6">
-      <c r="B71" s="39"/>
-      <c r="C71" s="32"/>
-      <c r="D71" s="33" t="s">
+      <c r="E71" s="102" t="s">
         <v>210</v>
       </c>
-      <c r="E71" s="34" t="s">
+      <c r="F71" s="35"/>
+    </row>
+    <row r="72" spans="2:6">
+      <c r="B72" s="40"/>
+      <c r="C72" s="33"/>
+      <c r="D72" s="34" t="s">
         <v>211</v>
       </c>
-      <c r="F71" s="34"/>
-    </row>
-    <row r="72" spans="2:6">
-      <c r="B72" s="39"/>
-      <c r="C72" s="32"/>
-      <c r="D72" s="33" t="s">
+      <c r="E72" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="E72" s="101" t="s">
+      <c r="F72" s="35"/>
+    </row>
+    <row r="73" spans="2:6">
+      <c r="B73" s="40"/>
+      <c r="C73" s="33"/>
+      <c r="D73" s="34" t="s">
         <v>213</v>
       </c>
-      <c r="F72" s="34"/>
-    </row>
-    <row r="73" spans="2:6">
-      <c r="B73" s="39"/>
-      <c r="C73" s="32"/>
-      <c r="D73" s="33" t="s">
+      <c r="E73" s="102" t="s">
         <v>214</v>
       </c>
-      <c r="E73" s="34" t="s">
+      <c r="F73" s="35"/>
+    </row>
+    <row r="74" spans="2:6">
+      <c r="B74" s="40"/>
+      <c r="C74" s="33"/>
+      <c r="D74" s="34" t="s">
         <v>215</v>
       </c>
-      <c r="F73" s="34"/>
-    </row>
-    <row r="74" spans="2:6">
-      <c r="B74" s="39"/>
-      <c r="C74" s="40" t="s">
+      <c r="E74" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="F74" s="35"/>
+    </row>
+    <row r="75" spans="2:6">
+      <c r="B75" s="40"/>
+      <c r="C75" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="D74" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="E74" s="32" t="s">
+      <c r="D75" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="F74" s="32"/>
-    </row>
-    <row r="75" spans="2:6">
-      <c r="B75" s="42"/>
-      <c r="C75" s="42"/>
-      <c r="D75" s="34" t="s">
+      <c r="E75" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="E75" s="32" t="s">
+      <c r="F75" s="33"/>
+    </row>
+    <row r="76" spans="2:6">
+      <c r="B76" s="43"/>
+      <c r="C76" s="43"/>
+      <c r="D76" s="35" t="s">
         <v>219</v>
       </c>
-      <c r="F75" s="32"/>
-    </row>
-    <row r="76" spans="2:6">
-      <c r="B76" s="39"/>
-      <c r="C76" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="D76" s="33" t="s">
+      <c r="E76" s="33" t="s">
         <v>220</v>
       </c>
-      <c r="E76" s="49" t="s">
+      <c r="F76" s="33"/>
+    </row>
+    <row r="77" spans="2:6">
+      <c r="B77" s="40"/>
+      <c r="C77" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="D77" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="F76" s="50"/>
-    </row>
-    <row r="77" spans="2:6">
-      <c r="B77" s="39"/>
-      <c r="C77" s="34" t="s">
-        <v>178</v>
-      </c>
-      <c r="D77" s="32" t="s">
+      <c r="E77" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="E77" s="32"/>
-      <c r="F77" s="32"/>
+      <c r="F77" s="51"/>
     </row>
     <row r="78" spans="2:6">
-      <c r="B78" s="39"/>
-      <c r="C78" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="D78" s="34" t="s">
+      <c r="B78" s="40"/>
+      <c r="C78" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="D78" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="E78" s="43"/>
-      <c r="F78" s="44"/>
-    </row>
-    <row r="81" spans="2:6">
-      <c r="B81" s="32" t="s">
+      <c r="E78" s="33"/>
+      <c r="F78" s="33"/>
+    </row>
+    <row r="79" spans="2:6">
+      <c r="B79" s="40"/>
+      <c r="C79" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="D79" s="35" t="s">
+        <v>224</v>
+      </c>
+      <c r="E79" s="44"/>
+      <c r="F79" s="45"/>
+    </row>
+    <row r="82" spans="2:6">
+      <c r="B82" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="C81" s="51" t="s">
+      <c r="C82" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="D81" s="49" t="s">
+      <c r="D82" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="E81" s="52"/>
-      <c r="F81" s="50"/>
-    </row>
-    <row r="82" spans="2:6">
-      <c r="B82" s="32"/>
-      <c r="C82" s="53"/>
-      <c r="D82" s="49" t="s">
+      <c r="E82" s="53"/>
+      <c r="F82" s="51"/>
+    </row>
+    <row r="83" spans="2:6">
+      <c r="B83" s="33"/>
+      <c r="C83" s="54"/>
+      <c r="D83" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="E82" s="52"/>
-      <c r="F82" s="50"/>
-    </row>
-    <row r="85" spans="2:6">
-      <c r="B85" s="32" t="s">
-        <v>224</v>
-      </c>
-      <c r="C85" s="32" t="s">
+      <c r="E83" s="53"/>
+      <c r="F83" s="51"/>
+    </row>
+    <row r="86" spans="2:6">
+      <c r="B86" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="D85" s="34" t="s">
+      <c r="C86" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="E85" s="34" t="s">
+      <c r="D86" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="F85" s="34"/>
-    </row>
-    <row r="86" spans="2:6">
-      <c r="B86" s="32"/>
-      <c r="C86" s="32"/>
-      <c r="D86" s="34" t="s">
+      <c r="E86" s="35" t="s">
         <v>228</v>
       </c>
-      <c r="E86" s="34" t="s">
+      <c r="F86" s="35"/>
+    </row>
+    <row r="87" spans="2:6">
+      <c r="B87" s="33"/>
+      <c r="C87" s="33"/>
+      <c r="D87" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="F86" s="34"/>
-    </row>
-    <row r="87" spans="2:6">
-      <c r="B87" s="32"/>
-      <c r="C87" s="32"/>
-      <c r="D87" s="34" t="s">
+      <c r="E87" s="35" t="s">
         <v>230</v>
       </c>
-      <c r="E87" s="34"/>
-      <c r="F87" s="34"/>
+      <c r="F87" s="35"/>
     </row>
     <row r="88" spans="2:6">
-      <c r="B88" s="32"/>
-      <c r="C88" s="32"/>
-      <c r="D88" s="34" t="s">
+      <c r="B88" s="33"/>
+      <c r="C88" s="33"/>
+      <c r="D88" s="35" t="s">
         <v>231</v>
       </c>
-      <c r="E88" s="34" t="s">
+      <c r="E88" s="35"/>
+      <c r="F88" s="35"/>
+    </row>
+    <row r="89" spans="2:6">
+      <c r="B89" s="33"/>
+      <c r="C89" s="33"/>
+      <c r="D89" s="35" t="s">
         <v>232</v>
       </c>
-      <c r="F88" s="34"/>
-    </row>
-    <row r="89" spans="2:6">
-      <c r="B89" s="32"/>
-      <c r="C89" s="32"/>
-      <c r="D89" s="34" t="s">
+      <c r="E89" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="E89" s="34"/>
-      <c r="F89" s="34"/>
+      <c r="F89" s="35"/>
     </row>
     <row r="90" spans="2:6">
-      <c r="B90" s="32"/>
-      <c r="C90" s="32"/>
-      <c r="D90" s="34" t="s">
+      <c r="B90" s="33"/>
+      <c r="C90" s="33"/>
+      <c r="D90" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="E90" s="34"/>
-      <c r="F90" s="34"/>
+      <c r="E90" s="35"/>
+      <c r="F90" s="35"/>
     </row>
     <row r="91" spans="2:6">
-      <c r="B91" s="32"/>
-      <c r="C91" s="32"/>
-      <c r="D91" s="34" t="s">
+      <c r="B91" s="33"/>
+      <c r="C91" s="33"/>
+      <c r="D91" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="E91" s="35"/>
+      <c r="F91" s="35"/>
+    </row>
+    <row r="92" spans="2:6">
+      <c r="B92" s="33"/>
+      <c r="C92" s="33"/>
+      <c r="D92" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E91" s="34"/>
-      <c r="F91" s="34"/>
-    </row>
-    <row r="92" spans="2:6">
-      <c r="B92" s="32"/>
-      <c r="C92" s="32"/>
-      <c r="D92" s="34" t="s">
-        <v>235</v>
-      </c>
-      <c r="E92" s="34"/>
-      <c r="F92" s="34"/>
+      <c r="E92" s="35"/>
+      <c r="F92" s="35"/>
     </row>
     <row r="93" spans="2:6">
-      <c r="B93" s="32"/>
-      <c r="C93" s="32"/>
-      <c r="D93" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="E93" s="34" t="s">
+      <c r="B93" s="33"/>
+      <c r="C93" s="33"/>
+      <c r="D93" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="F93" s="34"/>
-    </row>
-    <row r="94" ht="27" spans="2:6">
-      <c r="B94" s="32"/>
-      <c r="C94" s="54"/>
-      <c r="D94" s="33" t="s">
+      <c r="E93" s="35"/>
+      <c r="F93" s="35"/>
+    </row>
+    <row r="94" spans="2:6">
+      <c r="B94" s="33"/>
+      <c r="C94" s="33"/>
+      <c r="D94" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="E94" s="35" t="s">
         <v>237</v>
       </c>
-      <c r="E94" s="37" t="s">
+      <c r="F94" s="35"/>
+    </row>
+    <row r="95" ht="27" spans="2:6">
+      <c r="B95" s="33"/>
+      <c r="C95" s="55"/>
+      <c r="D95" s="34" t="s">
         <v>238</v>
       </c>
-      <c r="F94" s="34"/>
-    </row>
-    <row r="95" spans="2:6">
-      <c r="B95" s="32"/>
-      <c r="C95" s="54"/>
-      <c r="D95" s="33" t="s">
+      <c r="E95" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="E95" s="37" t="s">
+      <c r="F95" s="35"/>
+    </row>
+    <row r="96" spans="2:6">
+      <c r="B96" s="33"/>
+      <c r="C96" s="55"/>
+      <c r="D96" s="34" t="s">
         <v>240</v>
       </c>
-      <c r="F95" s="34"/>
-    </row>
-    <row r="96" spans="2:6">
-      <c r="B96" s="32"/>
-      <c r="C96" s="54"/>
-      <c r="D96" s="33" t="s">
+      <c r="E96" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="E96" s="34"/>
-      <c r="F96" s="34"/>
+      <c r="F96" s="35"/>
     </row>
     <row r="97" spans="2:6">
-      <c r="B97" s="32"/>
-      <c r="C97" s="54"/>
+      <c r="B97" s="33"/>
+      <c r="C97" s="55"/>
       <c r="D97" s="34" t="s">
         <v>242</v>
       </c>
-      <c r="E97" s="34"/>
-      <c r="F97" s="34"/>
+      <c r="E97" s="35"/>
+      <c r="F97" s="35"/>
     </row>
     <row r="98" spans="2:6">
-      <c r="B98" s="32"/>
-      <c r="C98" s="54"/>
-      <c r="D98" s="33" t="s">
+      <c r="B98" s="33"/>
+      <c r="C98" s="55"/>
+      <c r="D98" s="35" t="s">
         <v>243</v>
       </c>
-      <c r="E98" s="34"/>
-      <c r="F98" s="34"/>
+      <c r="E98" s="35"/>
+      <c r="F98" s="35"/>
     </row>
     <row r="99" spans="2:6">
-      <c r="B99" s="32"/>
-      <c r="C99" s="54"/>
-      <c r="D99" s="33" t="s">
+      <c r="B99" s="33"/>
+      <c r="C99" s="55"/>
+      <c r="D99" s="34" t="s">
         <v>244</v>
       </c>
-      <c r="E99" s="34"/>
-      <c r="F99" s="34"/>
+      <c r="E99" s="35"/>
+      <c r="F99" s="35"/>
     </row>
     <row r="100" spans="2:6">
-      <c r="B100" s="32"/>
-      <c r="C100" s="54"/>
-      <c r="D100" s="33" t="s">
+      <c r="B100" s="33"/>
+      <c r="C100" s="55"/>
+      <c r="D100" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="E100" s="34"/>
-      <c r="F100" s="34"/>
+      <c r="E100" s="35"/>
+      <c r="F100" s="35"/>
     </row>
     <row r="101" spans="2:6">
-      <c r="B101" s="32"/>
-      <c r="C101" s="54"/>
+      <c r="B101" s="33"/>
+      <c r="C101" s="55"/>
       <c r="D101" s="34" t="s">
         <v>246</v>
       </c>
-      <c r="E101" s="34"/>
-      <c r="F101" s="34"/>
+      <c r="E101" s="35"/>
+      <c r="F101" s="35"/>
     </row>
     <row r="102" spans="2:6">
-      <c r="B102" s="32"/>
-      <c r="C102" s="54"/>
-      <c r="D102" s="34" t="s">
+      <c r="B102" s="33"/>
+      <c r="C102" s="55"/>
+      <c r="D102" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="E102" s="34"/>
-      <c r="F102" s="34"/>
+      <c r="E102" s="35"/>
+      <c r="F102" s="35"/>
     </row>
     <row r="103" spans="2:6">
-      <c r="B103" s="32"/>
-      <c r="C103" s="54"/>
-      <c r="D103" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="E103" s="33" t="s">
+      <c r="B103" s="33"/>
+      <c r="C103" s="55"/>
+      <c r="D103" s="35" t="s">
         <v>248</v>
       </c>
-      <c r="F103" s="34"/>
+      <c r="E103" s="35"/>
+      <c r="F103" s="35"/>
     </row>
     <row r="104" spans="2:6">
-      <c r="B104" s="32"/>
-      <c r="C104" s="54"/>
-      <c r="D104" s="32" t="s">
+      <c r="B104" s="33"/>
+      <c r="C104" s="55"/>
+      <c r="D104" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="E104" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="E104" s="34" t="s">
+      <c r="F104" s="35"/>
+    </row>
+    <row r="105" spans="2:6">
+      <c r="B105" s="33"/>
+      <c r="C105" s="55"/>
+      <c r="D105" s="33" t="s">
         <v>250</v>
       </c>
-      <c r="F104" s="34"/>
-    </row>
-    <row r="105" spans="2:6">
-      <c r="B105" s="32"/>
-      <c r="C105" s="54"/>
-      <c r="D105" s="32"/>
-      <c r="E105" s="34" t="s">
+      <c r="E105" s="35" t="s">
         <v>251</v>
       </c>
-      <c r="F105" s="34"/>
+      <c r="F105" s="35"/>
     </row>
     <row r="106" spans="2:6">
-      <c r="B106" s="32"/>
-      <c r="C106" s="54"/>
-      <c r="D106" s="32"/>
-      <c r="E106" s="34" t="s">
+      <c r="B106" s="33"/>
+      <c r="C106" s="55"/>
+      <c r="D106" s="33"/>
+      <c r="E106" s="35" t="s">
         <v>252</v>
       </c>
-      <c r="F106" s="34"/>
+      <c r="F106" s="35"/>
     </row>
     <row r="107" spans="2:6">
-      <c r="B107" s="32"/>
-      <c r="C107" s="54"/>
-      <c r="D107" s="32"/>
-      <c r="E107" s="34" t="s">
+      <c r="B107" s="33"/>
+      <c r="C107" s="55"/>
+      <c r="D107" s="33"/>
+      <c r="E107" s="35" t="s">
         <v>253</v>
       </c>
-      <c r="F107" s="34"/>
+      <c r="F107" s="35"/>
     </row>
     <row r="108" spans="2:6">
-      <c r="B108" s="32"/>
-      <c r="C108" s="53"/>
-      <c r="D108" s="32"/>
-      <c r="E108" s="34" t="s">
+      <c r="B108" s="33"/>
+      <c r="C108" s="55"/>
+      <c r="D108" s="33"/>
+      <c r="E108" s="35" t="s">
         <v>254</v>
       </c>
-      <c r="F108" s="34"/>
+      <c r="F108" s="35"/>
     </row>
     <row r="109" spans="2:6">
-      <c r="B109" s="32"/>
-      <c r="C109" s="32" t="s">
-        <v>203</v>
-      </c>
-      <c r="D109" s="34" t="s">
+      <c r="B109" s="33"/>
+      <c r="C109" s="54"/>
+      <c r="D109" s="33"/>
+      <c r="E109" s="35" t="s">
         <v>255</v>
       </c>
-      <c r="E109" s="34" t="s">
+      <c r="F109" s="35"/>
+    </row>
+    <row r="110" spans="2:6">
+      <c r="B110" s="33"/>
+      <c r="C110" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="D110" s="35" t="s">
         <v>256</v>
       </c>
-      <c r="F109" s="34"/>
-    </row>
-    <row r="110" spans="2:6">
-      <c r="B110" s="32"/>
-      <c r="C110" s="32"/>
-      <c r="D110" s="32" t="s">
+      <c r="E110" s="35" t="s">
         <v>257</v>
       </c>
-      <c r="E110" s="34" t="s">
-        <v>230</v>
-      </c>
-      <c r="F110" s="34"/>
+      <c r="F110" s="35"/>
     </row>
     <row r="111" spans="2:6">
-      <c r="B111" s="32"/>
-      <c r="C111" s="32"/>
-      <c r="D111" s="32"/>
-      <c r="E111" s="34" t="s">
+      <c r="B111" s="33"/>
+      <c r="C111" s="33"/>
+      <c r="D111" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="E111" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="F111" s="35"/>
+    </row>
+    <row r="112" spans="2:6">
+      <c r="B112" s="33"/>
+      <c r="C112" s="33"/>
+      <c r="D112" s="33"/>
+      <c r="E112" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="F112" s="35"/>
+    </row>
+    <row r="113" spans="2:6">
+      <c r="B113" s="33"/>
+      <c r="C113" s="33"/>
+      <c r="D113" s="33"/>
+      <c r="E113" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="F111" s="34"/>
-    </row>
-    <row r="112" spans="2:6">
-      <c r="B112" s="32"/>
-      <c r="C112" s="32"/>
-      <c r="D112" s="32"/>
-      <c r="E112" s="34" t="s">
-        <v>233</v>
-      </c>
-      <c r="F112" s="34"/>
-    </row>
-    <row r="113" spans="2:6">
-      <c r="B113" s="32"/>
-      <c r="C113" s="32"/>
-      <c r="D113" s="32"/>
-      <c r="E113" s="34" t="s">
+      <c r="F113" s="35"/>
+    </row>
+    <row r="114" spans="2:6">
+      <c r="B114" s="33"/>
+      <c r="C114" s="33"/>
+      <c r="D114" s="33"/>
+      <c r="E114" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="F114" s="35"/>
+    </row>
+    <row r="115" spans="2:6">
+      <c r="B115" s="33"/>
+      <c r="C115" s="33"/>
+      <c r="D115" s="33"/>
+      <c r="E115" s="35" t="s">
+        <v>259</v>
+      </c>
+      <c r="F115" s="35"/>
+    </row>
+    <row r="116" spans="2:6">
+      <c r="B116" s="33"/>
+      <c r="C116" s="33"/>
+      <c r="D116" s="33"/>
+      <c r="E116" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="F116" s="35"/>
+    </row>
+    <row r="117" spans="2:6">
+      <c r="B117" s="33"/>
+      <c r="C117" s="33"/>
+      <c r="D117" s="33"/>
+      <c r="E117" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="F117" s="35"/>
+    </row>
+    <row r="118" spans="2:6">
+      <c r="B118" s="33"/>
+      <c r="C118" s="33"/>
+      <c r="D118" s="33"/>
+      <c r="E118" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="F118" s="35"/>
+    </row>
+    <row r="119" spans="2:6">
+      <c r="B119" s="33"/>
+      <c r="C119" s="33"/>
+      <c r="D119" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="E119" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="F119" s="35"/>
+    </row>
+    <row r="120" spans="2:6">
+      <c r="B120" s="33"/>
+      <c r="C120" s="33"/>
+      <c r="D120" s="33"/>
+      <c r="E120" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="F120" s="35"/>
+    </row>
+    <row r="121" spans="2:6">
+      <c r="B121" s="33"/>
+      <c r="C121" s="33"/>
+      <c r="D121" s="33"/>
+      <c r="E121" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="F121" s="35"/>
+    </row>
+    <row r="122" spans="2:6">
+      <c r="B122" s="33"/>
+      <c r="C122" s="33"/>
+      <c r="D122" s="33"/>
+      <c r="E122" s="35" t="s">
+        <v>254</v>
+      </c>
+      <c r="F122" s="35"/>
+    </row>
+    <row r="123" spans="2:6">
+      <c r="B123" s="33"/>
+      <c r="C123" s="33"/>
+      <c r="D123" s="33"/>
+      <c r="E123" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="F123" s="35"/>
+    </row>
+    <row r="124" spans="2:6">
+      <c r="B124" s="33"/>
+      <c r="C124" s="33"/>
+      <c r="D124" s="33"/>
+      <c r="E124" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="F124" s="35"/>
+    </row>
+    <row r="125" spans="2:6">
+      <c r="B125" s="33"/>
+      <c r="C125" s="33"/>
+      <c r="D125" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="E125" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="F125" s="35"/>
+    </row>
+    <row r="126" spans="2:6">
+      <c r="B126" s="33"/>
+      <c r="C126" s="33"/>
+      <c r="D126" s="33"/>
+      <c r="E126" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="F126" s="35"/>
+    </row>
+    <row r="127" spans="2:6">
+      <c r="B127" s="33"/>
+      <c r="C127" s="33"/>
+      <c r="D127" s="33"/>
+      <c r="E127" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="F127" s="35"/>
+    </row>
+    <row r="128" spans="2:6">
+      <c r="B128" s="33"/>
+      <c r="C128" s="33"/>
+      <c r="D128" s="33"/>
+      <c r="E128" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="F128" s="35"/>
+    </row>
+    <row r="129" spans="2:6">
+      <c r="B129" s="33"/>
+      <c r="C129" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="D129" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="E129" s="35"/>
+      <c r="F129" s="35"/>
+    </row>
+    <row r="130" spans="2:6">
+      <c r="B130" s="33"/>
+      <c r="C130" s="33"/>
+      <c r="D130" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="E130" s="35"/>
+      <c r="F130" s="35"/>
+    </row>
+    <row r="131" spans="2:6">
+      <c r="B131" s="33"/>
+      <c r="C131" s="33"/>
+      <c r="D131" s="35" t="s">
+        <v>266</v>
+      </c>
+      <c r="E131" s="35"/>
+      <c r="F131" s="35"/>
+    </row>
+    <row r="132" spans="2:6">
+      <c r="B132" s="33"/>
+      <c r="C132" s="33"/>
+      <c r="D132" s="35" t="s">
+        <v>267</v>
+      </c>
+      <c r="E132" s="35"/>
+      <c r="F132" s="35"/>
+    </row>
+    <row r="135" spans="2:6">
+      <c r="B135" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="C135" s="35" t="s">
+        <v>268</v>
+      </c>
+      <c r="D135" s="56" t="s">
+        <v>269</v>
+      </c>
+      <c r="E135" s="56"/>
+      <c r="F135" s="56"/>
+    </row>
+    <row r="136" spans="2:6">
+      <c r="B136" s="33"/>
+      <c r="C136" s="35" t="s">
+        <v>270</v>
+      </c>
+      <c r="D136" s="56" t="s">
+        <v>271</v>
+      </c>
+      <c r="E136" s="56"/>
+      <c r="F136" s="56"/>
+    </row>
+    <row r="137" spans="2:6">
+      <c r="B137" s="33"/>
+      <c r="C137" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="D137" s="56" t="s">
+        <v>273</v>
+      </c>
+      <c r="E137" s="56"/>
+      <c r="F137" s="56"/>
+    </row>
+    <row r="138" spans="2:6">
+      <c r="B138" s="33"/>
+      <c r="C138" s="35" t="s">
+        <v>274</v>
+      </c>
+      <c r="D138" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="E138" s="33"/>
+      <c r="F138" s="33"/>
+    </row>
+    <row r="141" ht="27" spans="2:6">
+      <c r="B141" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C141" s="35"/>
+      <c r="D141" s="35"/>
+      <c r="E141" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="F141" s="38"/>
+    </row>
+    <row r="142" spans="2:6">
+      <c r="B142" s="33"/>
+      <c r="C142" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="D142" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="E142" s="35"/>
+      <c r="F142" s="35"/>
+    </row>
+    <row r="143" spans="2:6">
+      <c r="B143" s="33"/>
+      <c r="C143" s="33"/>
+      <c r="D143" s="35" t="s">
+        <v>277</v>
+      </c>
+      <c r="E143" s="35"/>
+      <c r="F143" s="35"/>
+    </row>
+    <row r="144" spans="2:6">
+      <c r="B144" s="33"/>
+      <c r="C144" s="33"/>
+      <c r="D144" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E144" s="35"/>
+      <c r="F144" s="35"/>
+    </row>
+    <row r="145" spans="2:6">
+      <c r="B145" s="33"/>
+      <c r="C145" s="33"/>
+      <c r="D145" s="35" t="s">
+        <v>278</v>
+      </c>
+      <c r="E145" s="35"/>
+      <c r="F145" s="35"/>
+    </row>
+    <row r="146" spans="2:6">
+      <c r="B146" s="33"/>
+      <c r="C146" s="33"/>
+      <c r="D146" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="E146" s="35" t="s">
+        <v>279</v>
+      </c>
+      <c r="F146" s="35"/>
+    </row>
+    <row r="147" spans="2:6">
+      <c r="B147" s="33"/>
+      <c r="C147" s="41" t="s">
+        <v>280</v>
+      </c>
+      <c r="D147" s="34" t="s">
+        <v>281</v>
+      </c>
+      <c r="E147" s="35"/>
+      <c r="F147" s="35"/>
+    </row>
+    <row r="148" spans="2:6">
+      <c r="B148" s="33"/>
+      <c r="C148" s="40"/>
+      <c r="D148" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="E148" s="35"/>
+      <c r="F148" s="35"/>
+    </row>
+    <row r="149" spans="2:6">
+      <c r="B149" s="33"/>
+      <c r="C149" s="40"/>
+      <c r="D149" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="E149" s="35"/>
+      <c r="F149" s="35"/>
+    </row>
+    <row r="150" spans="2:6">
+      <c r="B150" s="33"/>
+      <c r="C150" s="40"/>
+      <c r="D150" s="34" t="s">
         <v>246</v>
       </c>
-      <c r="F113" s="34"/>
-    </row>
-    <row r="114" spans="2:6">
-      <c r="B114" s="32"/>
-      <c r="C114" s="32"/>
-      <c r="D114" s="32"/>
-      <c r="E114" s="34" t="s">
-        <v>258</v>
-      </c>
-      <c r="F114" s="34"/>
-    </row>
-    <row r="115" spans="2:6">
-      <c r="B115" s="32"/>
-      <c r="C115" s="32"/>
-      <c r="D115" s="32"/>
-      <c r="E115" s="34" t="s">
-        <v>259</v>
-      </c>
-      <c r="F115" s="34"/>
-    </row>
-    <row r="116" spans="2:6">
-      <c r="B116" s="32"/>
-      <c r="C116" s="32"/>
-      <c r="D116" s="32"/>
-      <c r="E116" s="34" t="s">
-        <v>235</v>
-      </c>
-      <c r="F116" s="34"/>
-    </row>
-    <row r="117" spans="2:6">
-      <c r="B117" s="32"/>
-      <c r="C117" s="32"/>
-      <c r="D117" s="32"/>
-      <c r="E117" s="34" t="s">
-        <v>228</v>
-      </c>
-      <c r="F117" s="34"/>
-    </row>
-    <row r="118" spans="2:6">
-      <c r="B118" s="32"/>
-      <c r="C118" s="32"/>
-      <c r="D118" s="32" t="s">
-        <v>249</v>
-      </c>
-      <c r="E118" s="34" t="s">
-        <v>250</v>
-      </c>
-      <c r="F118" s="34"/>
-    </row>
-    <row r="119" spans="2:6">
-      <c r="B119" s="32"/>
-      <c r="C119" s="32"/>
-      <c r="D119" s="32"/>
-      <c r="E119" s="34" t="s">
-        <v>251</v>
-      </c>
-      <c r="F119" s="34"/>
-    </row>
-    <row r="120" spans="2:6">
-      <c r="B120" s="32"/>
-      <c r="C120" s="32"/>
-      <c r="D120" s="32"/>
-      <c r="E120" s="34" t="s">
-        <v>252</v>
-      </c>
-      <c r="F120" s="34"/>
-    </row>
-    <row r="121" spans="2:6">
-      <c r="B121" s="32"/>
-      <c r="C121" s="32"/>
-      <c r="D121" s="32"/>
-      <c r="E121" s="34" t="s">
-        <v>253</v>
-      </c>
-      <c r="F121" s="34"/>
-    </row>
-    <row r="122" spans="2:6">
-      <c r="B122" s="32"/>
-      <c r="C122" s="32"/>
-      <c r="D122" s="32"/>
-      <c r="E122" s="34" t="s">
-        <v>254</v>
-      </c>
-      <c r="F122" s="34"/>
-    </row>
-    <row r="123" spans="2:6">
-      <c r="B123" s="32"/>
-      <c r="C123" s="32"/>
-      <c r="D123" s="32"/>
-      <c r="E123" s="34" t="s">
-        <v>252</v>
-      </c>
-      <c r="F123" s="34"/>
-    </row>
-    <row r="124" spans="2:6">
-      <c r="B124" s="32"/>
-      <c r="C124" s="32"/>
-      <c r="D124" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="E124" s="34" t="s">
-        <v>260</v>
-      </c>
-      <c r="F124" s="34"/>
-    </row>
-    <row r="125" spans="2:6">
-      <c r="B125" s="32"/>
-      <c r="C125" s="32"/>
-      <c r="D125" s="32"/>
-      <c r="E125" s="34" t="s">
-        <v>261</v>
-      </c>
-      <c r="F125" s="34"/>
-    </row>
-    <row r="126" spans="2:6">
-      <c r="B126" s="32"/>
-      <c r="C126" s="32"/>
-      <c r="D126" s="32"/>
-      <c r="E126" s="34" t="s">
-        <v>262</v>
-      </c>
-      <c r="F126" s="34"/>
-    </row>
-    <row r="127" spans="2:6">
-      <c r="B127" s="32"/>
-      <c r="C127" s="32"/>
-      <c r="D127" s="32"/>
-      <c r="E127" s="34" t="s">
-        <v>263</v>
-      </c>
-      <c r="F127" s="34"/>
-    </row>
-    <row r="128" spans="2:6">
-      <c r="B128" s="32"/>
-      <c r="C128" s="32" t="s">
-        <v>236</v>
-      </c>
-      <c r="D128" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="E128" s="34"/>
-      <c r="F128" s="34"/>
-    </row>
-    <row r="129" spans="2:6">
-      <c r="B129" s="32"/>
-      <c r="C129" s="32"/>
-      <c r="D129" s="34" t="s">
-        <v>264</v>
-      </c>
-      <c r="E129" s="34"/>
-      <c r="F129" s="34"/>
-    </row>
-    <row r="130" spans="2:6">
-      <c r="B130" s="32"/>
-      <c r="C130" s="32"/>
-      <c r="D130" s="34" t="s">
-        <v>265</v>
-      </c>
-      <c r="E130" s="34"/>
-      <c r="F130" s="34"/>
-    </row>
-    <row r="131" spans="2:6">
-      <c r="B131" s="32"/>
-      <c r="C131" s="32"/>
-      <c r="D131" s="34" t="s">
-        <v>266</v>
-      </c>
-      <c r="E131" s="34"/>
-      <c r="F131" s="34"/>
-    </row>
-    <row r="134" spans="2:6">
-      <c r="B134" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="C134" s="34" t="s">
-        <v>267</v>
-      </c>
-      <c r="D134" s="55" t="s">
-        <v>268</v>
-      </c>
-      <c r="E134" s="55"/>
-      <c r="F134" s="55"/>
-    </row>
-    <row r="135" spans="2:6">
-      <c r="B135" s="32"/>
-      <c r="C135" s="34" t="s">
-        <v>269</v>
-      </c>
-      <c r="D135" s="55" t="s">
-        <v>270</v>
-      </c>
-      <c r="E135" s="55"/>
-      <c r="F135" s="55"/>
-    </row>
-    <row r="136" spans="2:6">
-      <c r="B136" s="32"/>
-      <c r="C136" s="34" t="s">
-        <v>271</v>
-      </c>
-      <c r="D136" s="55" t="s">
-        <v>272</v>
-      </c>
-      <c r="E136" s="55"/>
-      <c r="F136" s="55"/>
-    </row>
-    <row r="137" spans="2:6">
-      <c r="B137" s="32"/>
-      <c r="C137" s="34" t="s">
-        <v>273</v>
-      </c>
-      <c r="D137" s="32" t="s">
-        <v>274</v>
-      </c>
-      <c r="E137" s="32"/>
-      <c r="F137" s="32"/>
-    </row>
-    <row r="140" ht="27" spans="2:6">
-      <c r="B140" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="C140" s="34"/>
-      <c r="D140" s="34"/>
-      <c r="E140" s="37" t="s">
-        <v>275</v>
-      </c>
-      <c r="F140" s="37"/>
-    </row>
-    <row r="141" spans="2:6">
-      <c r="B141" s="32"/>
-      <c r="C141" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="D141" s="34" t="s">
-        <v>235</v>
-      </c>
-      <c r="E141" s="34"/>
-      <c r="F141" s="34"/>
-    </row>
-    <row r="142" spans="2:6">
-      <c r="B142" s="32"/>
-      <c r="C142" s="32"/>
-      <c r="D142" s="34" t="s">
-        <v>276</v>
-      </c>
-      <c r="E142" s="34"/>
-      <c r="F142" s="34"/>
-    </row>
-    <row r="143" spans="2:6">
-      <c r="B143" s="32"/>
-      <c r="C143" s="32"/>
-      <c r="D143" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="E143" s="34"/>
-      <c r="F143" s="34"/>
-    </row>
-    <row r="144" spans="2:6">
-      <c r="B144" s="32"/>
-      <c r="C144" s="32"/>
-      <c r="D144" s="34" t="s">
-        <v>277</v>
-      </c>
-      <c r="E144" s="34"/>
-      <c r="F144" s="34"/>
-    </row>
-    <row r="145" spans="2:6">
-      <c r="B145" s="32"/>
-      <c r="C145" s="32"/>
-      <c r="D145" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="E145" s="34" t="s">
-        <v>278</v>
-      </c>
-      <c r="F145" s="34"/>
-    </row>
-    <row r="146" spans="2:6">
-      <c r="B146" s="32"/>
-      <c r="C146" s="40" t="s">
-        <v>279</v>
-      </c>
-      <c r="D146" s="33" t="s">
-        <v>280</v>
-      </c>
-      <c r="E146" s="34"/>
-      <c r="F146" s="34"/>
-    </row>
-    <row r="147" spans="2:6">
-      <c r="B147" s="32"/>
-      <c r="C147" s="39"/>
-      <c r="D147" s="33" t="s">
-        <v>243</v>
-      </c>
-      <c r="E147" s="34"/>
-      <c r="F147" s="34"/>
-    </row>
-    <row r="148" spans="2:6">
-      <c r="B148" s="32"/>
-      <c r="C148" s="39"/>
-      <c r="D148" s="33" t="s">
-        <v>244</v>
-      </c>
-      <c r="E148" s="34"/>
-      <c r="F148" s="34"/>
-    </row>
-    <row r="149" spans="2:6">
-      <c r="B149" s="32"/>
-      <c r="C149" s="39"/>
-      <c r="D149" s="33" t="s">
-        <v>245</v>
-      </c>
-      <c r="E149" s="34"/>
-      <c r="F149" s="34"/>
-    </row>
-    <row r="150" spans="2:6">
-      <c r="B150" s="32"/>
-      <c r="C150" s="39"/>
-      <c r="D150" s="34" t="s">
-        <v>281</v>
-      </c>
-      <c r="E150" s="34"/>
-      <c r="F150" s="34"/>
+      <c r="E150" s="35"/>
+      <c r="F150" s="35"/>
     </row>
     <row r="151" spans="2:6">
-      <c r="B151" s="32"/>
-      <c r="C151" s="42"/>
-      <c r="D151" s="33" t="s">
+      <c r="B151" s="33"/>
+      <c r="C151" s="40"/>
+      <c r="D151" s="35" t="s">
         <v>282</v>
       </c>
-      <c r="E151" s="34"/>
-      <c r="F151" s="34"/>
+      <c r="E151" s="35"/>
+      <c r="F151" s="35"/>
     </row>
     <row r="152" spans="2:6">
-      <c r="B152" s="32"/>
-      <c r="C152" s="32" t="s">
-        <v>203</v>
-      </c>
+      <c r="B152" s="33"/>
+      <c r="C152" s="43"/>
       <c r="D152" s="34" t="s">
         <v>283</v>
       </c>
-      <c r="E152" s="34"/>
-      <c r="F152" s="34"/>
+      <c r="E152" s="35"/>
+      <c r="F152" s="35"/>
     </row>
     <row r="153" spans="2:6">
-      <c r="B153" s="32"/>
-      <c r="C153" s="32"/>
-      <c r="D153" s="34" t="s">
+      <c r="B153" s="33"/>
+      <c r="C153" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="D153" s="35" t="s">
         <v>284</v>
       </c>
-      <c r="E153" s="34"/>
-      <c r="F153" s="34"/>
+      <c r="E153" s="35"/>
+      <c r="F153" s="35"/>
     </row>
     <row r="154" spans="2:6">
-      <c r="B154" s="32"/>
-      <c r="C154" s="32"/>
-      <c r="D154" s="34" t="s">
-        <v>228</v>
-      </c>
-      <c r="E154" s="34"/>
-      <c r="F154" s="34"/>
+      <c r="B154" s="33"/>
+      <c r="C154" s="33"/>
+      <c r="D154" s="35" t="s">
+        <v>285</v>
+      </c>
+      <c r="E154" s="35"/>
+      <c r="F154" s="35"/>
     </row>
     <row r="155" spans="2:6">
-      <c r="B155" s="32"/>
-      <c r="C155" s="32"/>
-      <c r="D155" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="E155" s="34" t="s">
+      <c r="B155" s="33"/>
+      <c r="C155" s="33"/>
+      <c r="D155" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="E155" s="35"/>
+      <c r="F155" s="35"/>
+    </row>
+    <row r="156" spans="2:6">
+      <c r="B156" s="33"/>
+      <c r="C156" s="33"/>
+      <c r="D156" s="35" t="s">
         <v>286</v>
       </c>
-      <c r="F155" s="34"/>
-    </row>
-    <row r="156" spans="3:3">
-      <c r="C156" s="56"/>
-    </row>
-    <row r="158" spans="2:6">
-      <c r="B158" s="32" t="s">
+      <c r="E156" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="F156" s="35"/>
+    </row>
+    <row r="157" spans="3:3">
+      <c r="C157" s="57"/>
+    </row>
+    <row r="159" spans="2:6">
+      <c r="B159" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="C158" s="40" t="s">
-        <v>287</v>
-      </c>
-      <c r="D158" s="32" t="s">
+      <c r="C159" s="41" t="s">
         <v>288</v>
       </c>
-      <c r="E158" s="34" t="s">
+      <c r="D159" s="33" t="s">
         <v>289</v>
       </c>
-      <c r="F158" s="34"/>
-    </row>
-    <row r="159" spans="2:6">
-      <c r="B159" s="32"/>
-      <c r="C159" s="39"/>
-      <c r="D159" s="32"/>
-      <c r="E159" s="34" t="s">
-        <v>273</v>
-      </c>
-      <c r="F159" s="34"/>
+      <c r="E159" s="35" t="s">
+        <v>290</v>
+      </c>
+      <c r="F159" s="35"/>
     </row>
     <row r="160" spans="2:6">
-      <c r="B160" s="32"/>
-      <c r="C160" s="39"/>
-      <c r="D160" s="32" t="s">
+      <c r="B160" s="33"/>
+      <c r="C160" s="40"/>
+      <c r="D160" s="33"/>
+      <c r="E160" s="35" t="s">
+        <v>274</v>
+      </c>
+      <c r="F160" s="35"/>
+    </row>
+    <row r="161" spans="2:6">
+      <c r="B161" s="33"/>
+      <c r="C161" s="40"/>
+      <c r="D161" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="E161" s="35" t="s">
         <v>290</v>
       </c>
-      <c r="E160" s="34" t="s">
-        <v>289</v>
-      </c>
-      <c r="F160" s="34"/>
-    </row>
-    <row r="161" spans="2:6">
-      <c r="B161" s="32"/>
-      <c r="C161" s="39"/>
-      <c r="D161" s="32"/>
-      <c r="E161" s="34" t="s">
-        <v>273</v>
-      </c>
-      <c r="F161" s="34"/>
+      <c r="F161" s="35"/>
     </row>
     <row r="162" spans="2:6">
-      <c r="B162" s="32"/>
-      <c r="C162" s="39"/>
-      <c r="D162" s="40" t="s">
+      <c r="B162" s="33"/>
+      <c r="C162" s="40"/>
+      <c r="D162" s="33"/>
+      <c r="E162" s="35" t="s">
+        <v>274</v>
+      </c>
+      <c r="F162" s="35"/>
+    </row>
+    <row r="163" spans="2:6">
+      <c r="B163" s="33"/>
+      <c r="C163" s="40"/>
+      <c r="D163" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="E162" s="34" t="s">
-        <v>291</v>
-      </c>
-      <c r="F162" s="34"/>
-    </row>
-    <row r="163" spans="2:6">
-      <c r="B163" s="32"/>
-      <c r="C163" s="42"/>
-      <c r="D163" s="42"/>
-      <c r="E163" s="34" t="s">
-        <v>273</v>
-      </c>
-      <c r="F163" s="34"/>
+      <c r="E163" s="35" t="s">
+        <v>292</v>
+      </c>
+      <c r="F163" s="35"/>
     </row>
     <row r="164" spans="2:6">
-      <c r="B164" s="32"/>
-      <c r="C164" s="34" t="s">
-        <v>292</v>
-      </c>
-      <c r="D164" s="34" t="s">
+      <c r="B164" s="33"/>
+      <c r="C164" s="43"/>
+      <c r="D164" s="43"/>
+      <c r="E164" s="35" t="s">
+        <v>274</v>
+      </c>
+      <c r="F164" s="35"/>
+    </row>
+    <row r="165" spans="2:6">
+      <c r="B165" s="33"/>
+      <c r="C165" s="35" t="s">
         <v>293</v>
       </c>
-      <c r="E164" s="34" t="s">
+      <c r="D165" s="35" t="s">
         <v>294</v>
       </c>
-      <c r="F164" s="34"/>
+      <c r="E165" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="F165" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="76">
+  <mergeCells count="77">
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D19:F19"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="E22:F22"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="D26:F26"/>
     <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E28:F28"/>
     <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E41:F41"/>
     <mergeCell ref="E44:F44"/>
     <mergeCell ref="E45:F45"/>
-    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="E46:F46"/>
     <mergeCell ref="D47:F47"/>
     <mergeCell ref="D48:F48"/>
     <mergeCell ref="D49:F49"/>
-    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="D50:F50"/>
     <mergeCell ref="E53:F53"/>
     <mergeCell ref="E54:F54"/>
-    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="E55:F55"/>
     <mergeCell ref="D56:F56"/>
     <mergeCell ref="D57:F57"/>
     <mergeCell ref="D58:F58"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="E69:F69"/>
     <mergeCell ref="E75:F75"/>
     <mergeCell ref="E76:F76"/>
-    <mergeCell ref="D77:F77"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="D78:F78"/>
+    <mergeCell ref="E79:F79"/>
     <mergeCell ref="D82:F82"/>
-    <mergeCell ref="D134:F134"/>
+    <mergeCell ref="D83:F83"/>
     <mergeCell ref="D135:F135"/>
     <mergeCell ref="D136:F136"/>
     <mergeCell ref="D137:F137"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="B10:B22"/>
-    <mergeCell ref="B25:B40"/>
-    <mergeCell ref="B43:B49"/>
-    <mergeCell ref="B52:B58"/>
-    <mergeCell ref="B61:B78"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="B85:B131"/>
-    <mergeCell ref="B134:B137"/>
-    <mergeCell ref="B140:B155"/>
-    <mergeCell ref="B158:B164"/>
+    <mergeCell ref="D138:F138"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="B11:B23"/>
+    <mergeCell ref="B26:B41"/>
+    <mergeCell ref="B44:B50"/>
+    <mergeCell ref="B53:B59"/>
+    <mergeCell ref="B62:B79"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B86:B132"/>
+    <mergeCell ref="B135:B138"/>
+    <mergeCell ref="B141:B156"/>
+    <mergeCell ref="B159:B165"/>
     <mergeCell ref="C3:C6"/>
-    <mergeCell ref="C10:C17"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="C29:C34"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="C61:C65"/>
-    <mergeCell ref="C67:C73"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="C85:C93"/>
-    <mergeCell ref="C94:C108"/>
-    <mergeCell ref="C109:C127"/>
-    <mergeCell ref="C128:C131"/>
-    <mergeCell ref="C141:C145"/>
-    <mergeCell ref="C146:C151"/>
-    <mergeCell ref="C152:C155"/>
-    <mergeCell ref="C158:C163"/>
-    <mergeCell ref="D104:D108"/>
-    <mergeCell ref="D110:D117"/>
-    <mergeCell ref="D118:D123"/>
-    <mergeCell ref="D124:D127"/>
-    <mergeCell ref="D158:D159"/>
-    <mergeCell ref="D160:D161"/>
-    <mergeCell ref="D162:D163"/>
+    <mergeCell ref="C11:C18"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C30:C35"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="C62:C66"/>
+    <mergeCell ref="C68:C74"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="C86:C94"/>
+    <mergeCell ref="C95:C109"/>
+    <mergeCell ref="C110:C128"/>
+    <mergeCell ref="C129:C132"/>
+    <mergeCell ref="C142:C146"/>
+    <mergeCell ref="C147:C152"/>
+    <mergeCell ref="C153:C156"/>
+    <mergeCell ref="C159:C164"/>
+    <mergeCell ref="D105:D109"/>
+    <mergeCell ref="D111:D118"/>
+    <mergeCell ref="D119:D124"/>
+    <mergeCell ref="D125:D128"/>
+    <mergeCell ref="D159:D160"/>
+    <mergeCell ref="D161:D162"/>
+    <mergeCell ref="D163:D164"/>
     <mergeCell ref="F3:F7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7199,84 +7217,84 @@
         <v>4</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" ht="54" spans="2:7">
       <c r="B3" s="9" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" ht="139" customHeight="1" spans="2:7">
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="10" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" ht="40.5" spans="2:7">
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" s="10" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" ht="40.5" spans="2:7">
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="10" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G6" s="10"/>
     </row>
@@ -7284,13 +7302,13 @@
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="11" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G7" s="10"/>
       <c r="I7" s="13"/>
@@ -7299,13 +7317,13 @@
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="10" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G8" s="10"/>
     </row>
@@ -7313,13 +7331,13 @@
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="10" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G9" s="10"/>
     </row>
@@ -7327,13 +7345,13 @@
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="10" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G10" s="10"/>
     </row>
@@ -7341,13 +7359,13 @@
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="10" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G11" s="10"/>
     </row>
@@ -7355,13 +7373,13 @@
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="11" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G12" s="10"/>
     </row>
@@ -7369,29 +7387,29 @@
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="10" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G13" s="10"/>
     </row>
     <row r="14" ht="54" spans="2:7">
       <c r="B14" s="9"/>
       <c r="C14" s="9" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G14" s="10"/>
     </row>
@@ -7399,13 +7417,13 @@
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="11" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G15" s="10"/>
     </row>
@@ -7413,13 +7431,13 @@
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="10" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G16" s="10"/>
     </row>
@@ -7427,13 +7445,13 @@
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="11" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G17" s="10"/>
     </row>
@@ -7441,13 +7459,13 @@
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="10" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G18" s="10"/>
     </row>
@@ -7455,13 +7473,13 @@
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="11" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G19" s="10"/>
     </row>
@@ -7469,13 +7487,13 @@
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="11" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G20" s="10"/>
     </row>
@@ -7483,13 +7501,13 @@
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="11" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G21" s="10"/>
     </row>
@@ -7497,13 +7515,13 @@
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="11" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G22" s="10"/>
     </row>
@@ -7511,13 +7529,13 @@
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="10" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G23" s="10"/>
     </row>
@@ -7525,13 +7543,13 @@
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="10" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G24" s="10"/>
     </row>
@@ -7539,13 +7557,13 @@
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="10" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G25" s="10"/>
     </row>
@@ -7553,13 +7571,13 @@
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="11" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G26" s="10"/>
     </row>
@@ -7567,13 +7585,13 @@
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="10" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G27" s="10"/>
     </row>
@@ -7581,13 +7599,13 @@
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="10" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G28" s="10"/>
     </row>
@@ -7595,13 +7613,13 @@
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="11" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G29" s="10"/>
     </row>
@@ -7609,13 +7627,13 @@
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="11" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G30" s="10"/>
     </row>
@@ -7623,13 +7641,13 @@
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
       <c r="D31" s="10" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G31" s="10"/>
     </row>
@@ -7637,13 +7655,13 @@
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
       <c r="D32" s="10" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G32" s="10"/>
     </row>
@@ -7651,13 +7669,13 @@
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="10" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G33" s="10"/>
     </row>
@@ -7665,13 +7683,13 @@
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="10" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G34" s="10"/>
     </row>
@@ -7679,13 +7697,13 @@
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="10" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G35" s="10"/>
     </row>
@@ -7693,13 +7711,13 @@
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="10" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G36" s="10"/>
     </row>
@@ -7707,29 +7725,29 @@
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
       <c r="D37" s="10" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G37" s="10"/>
     </row>
     <row r="38" ht="54" spans="2:7">
       <c r="B38" s="9"/>
       <c r="C38" s="9" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G38" s="10"/>
     </row>
@@ -7737,13 +7755,13 @@
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="11" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G39" s="10"/>
     </row>
@@ -7751,13 +7769,13 @@
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
       <c r="D40" s="10" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G40" s="10"/>
     </row>
@@ -7765,13 +7783,13 @@
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
       <c r="D41" s="10" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G41" s="10"/>
     </row>
@@ -7779,13 +7797,13 @@
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
       <c r="D42" s="11" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G42" s="10"/>
     </row>
@@ -7793,13 +7811,13 @@
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
       <c r="D43" s="10" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G43" s="10"/>
     </row>
@@ -7807,13 +7825,13 @@
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
       <c r="D44" s="10" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G44" s="10"/>
     </row>
@@ -7821,13 +7839,13 @@
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="10" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G45" s="10"/>
     </row>
@@ -7835,13 +7853,13 @@
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="10" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G46" s="10"/>
     </row>
@@ -7849,13 +7867,13 @@
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
       <c r="D47" s="10" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G47" s="10"/>
     </row>
@@ -7863,13 +7881,13 @@
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
       <c r="D48" s="10" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G48" s="10"/>
     </row>
@@ -7877,29 +7895,29 @@
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
       <c r="D49" s="11" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G49" s="10"/>
     </row>
     <row r="50" ht="27" spans="2:7">
       <c r="B50" s="9"/>
       <c r="C50" s="9" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G50" s="10"/>
     </row>
@@ -7907,13 +7925,13 @@
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
       <c r="D51" s="10" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G51" s="10"/>
     </row>
@@ -7921,13 +7939,13 @@
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
       <c r="D52" s="10" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G52" s="10"/>
     </row>
@@ -7935,13 +7953,13 @@
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
       <c r="D53" s="11" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G53" s="10"/>
     </row>
@@ -7949,29 +7967,29 @@
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
       <c r="D54" s="10" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G54" s="10"/>
     </row>
     <row r="55" ht="54" spans="2:7">
       <c r="B55" s="9"/>
       <c r="C55" s="9" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G55" s="10"/>
     </row>
@@ -7979,13 +7997,13 @@
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
       <c r="D56" s="10" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G56" s="10"/>
     </row>
@@ -7993,13 +8011,13 @@
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
       <c r="D57" s="11" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G57" s="10"/>
     </row>
@@ -8007,13 +8025,13 @@
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
       <c r="D58" s="10" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G58" s="10"/>
     </row>
@@ -8021,13 +8039,13 @@
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
       <c r="D59" s="10" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G59" s="10"/>
     </row>
@@ -8035,47 +8053,47 @@
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
       <c r="D60" s="10" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G60" s="10"/>
     </row>
     <row r="61" ht="310.5" spans="2:7">
       <c r="B61" s="9"/>
       <c r="C61" s="10" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="62" ht="40.5" spans="2:7">
       <c r="B62" s="9"/>
       <c r="C62" s="12" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G62" s="10"/>
     </row>
@@ -8083,13 +8101,13 @@
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
       <c r="D63" s="10" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G63" s="10"/>
     </row>
@@ -8097,13 +8115,13 @@
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
       <c r="D64" s="10" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G64" s="10"/>
     </row>
@@ -8111,13 +8129,13 @@
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
       <c r="D65" s="11" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G65" s="10"/>
     </row>
@@ -8125,31 +8143,31 @@
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
       <c r="D66" s="11" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G66" s="10"/>
     </row>
     <row r="67" ht="70" customHeight="1" spans="2:7">
       <c r="B67" s="14" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D67" s="16" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F67" s="16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G67" s="16"/>
     </row>
@@ -8157,13 +8175,13 @@
       <c r="B68" s="18"/>
       <c r="C68" s="19"/>
       <c r="D68" s="16" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F68" s="16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G68" s="16"/>
     </row>
@@ -8171,13 +8189,13 @@
       <c r="B69" s="18"/>
       <c r="C69" s="19"/>
       <c r="D69" s="16" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E69" s="17" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F69" s="16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G69" s="16"/>
     </row>
@@ -8185,13 +8203,13 @@
       <c r="B70" s="18"/>
       <c r="C70" s="19"/>
       <c r="D70" s="17" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E70" s="17" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F70" s="16" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G70" s="16"/>
     </row>
@@ -8199,13 +8217,13 @@
       <c r="B71" s="18"/>
       <c r="C71" s="19"/>
       <c r="D71" s="16" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E71" s="17" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F71" s="16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G71" s="16"/>
     </row>
@@ -8213,13 +8231,13 @@
       <c r="B72" s="18"/>
       <c r="C72" s="19"/>
       <c r="D72" s="17" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F72" s="16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G72" s="16"/>
     </row>
@@ -8227,13 +8245,13 @@
       <c r="B73" s="18"/>
       <c r="C73" s="19"/>
       <c r="D73" s="16" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E73" s="17" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F73" s="16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G73" s="16"/>
     </row>
@@ -8241,13 +8259,13 @@
       <c r="B74" s="18"/>
       <c r="C74" s="19"/>
       <c r="D74" s="16" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F74" s="16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G74" s="16"/>
     </row>
@@ -8255,13 +8273,13 @@
       <c r="B75" s="18"/>
       <c r="C75" s="19"/>
       <c r="D75" s="16" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E75" s="17" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F75" s="16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G75" s="16"/>
     </row>
@@ -8269,13 +8287,13 @@
       <c r="B76" s="18"/>
       <c r="C76" s="19"/>
       <c r="D76" s="16" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F76" s="16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G76" s="16"/>
     </row>
@@ -8283,13 +8301,13 @@
       <c r="B77" s="18"/>
       <c r="C77" s="19"/>
       <c r="D77" s="16" t="s">
+        <v>444</v>
+      </c>
+      <c r="E77" s="17" t="s">
+        <v>445</v>
+      </c>
+      <c r="F77" s="16" t="s">
         <v>443</v>
-      </c>
-      <c r="E77" s="17" t="s">
-        <v>444</v>
-      </c>
-      <c r="F77" s="16" t="s">
-        <v>442</v>
       </c>
       <c r="G77" s="16"/>
     </row>
@@ -8297,10 +8315,10 @@
       <c r="B78" s="18"/>
       <c r="C78" s="19"/>
       <c r="D78" s="16" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F78" s="16"/>
       <c r="G78" s="16"/>
@@ -8309,13 +8327,13 @@
       <c r="B79" s="18"/>
       <c r="C79" s="19"/>
       <c r="D79" s="17" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E79" s="17" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F79" s="16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G79" s="16"/>
     </row>
@@ -8323,13 +8341,13 @@
       <c r="B80" s="18"/>
       <c r="C80" s="19"/>
       <c r="D80" s="17" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F80" s="16" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G80" s="16"/>
     </row>
@@ -8337,13 +8355,13 @@
       <c r="B81" s="18"/>
       <c r="C81" s="19"/>
       <c r="D81" s="16" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E81" s="17" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F81" s="16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G81" s="16"/>
     </row>
@@ -8351,29 +8369,29 @@
       <c r="B82" s="18"/>
       <c r="C82" s="20"/>
       <c r="D82" s="16" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E82" s="17" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F82" s="16" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G82" s="16"/>
     </row>
     <row r="83" ht="54" spans="2:7">
       <c r="B83" s="18"/>
       <c r="C83" s="21" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E83" s="17" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F83" s="16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G83" s="16"/>
     </row>
@@ -8381,13 +8399,13 @@
       <c r="B84" s="18"/>
       <c r="C84" s="18"/>
       <c r="D84" s="17" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E84" s="17" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F84" s="16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G84" s="16"/>
     </row>
@@ -8395,13 +8413,13 @@
       <c r="B85" s="18"/>
       <c r="C85" s="18"/>
       <c r="D85" s="16" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E85" s="17" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F85" s="16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G85" s="16"/>
     </row>
@@ -8409,13 +8427,13 @@
       <c r="B86" s="18"/>
       <c r="C86" s="18"/>
       <c r="D86" s="16" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E86" s="17" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F86" s="16" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G86" s="16"/>
     </row>
@@ -8423,13 +8441,13 @@
       <c r="B87" s="18"/>
       <c r="C87" s="18"/>
       <c r="D87" s="16" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E87" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F87" s="16" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G87" s="16"/>
     </row>
@@ -8437,13 +8455,13 @@
       <c r="B88" s="18"/>
       <c r="C88" s="18"/>
       <c r="D88" s="16" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E88" s="17" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F88" s="16" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G88" s="16"/>
     </row>
@@ -8451,13 +8469,13 @@
       <c r="B89" s="18"/>
       <c r="C89" s="18"/>
       <c r="D89" s="16" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E89" s="17" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F89" s="16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G89" s="16"/>
     </row>
@@ -8465,13 +8483,13 @@
       <c r="B90" s="18"/>
       <c r="C90" s="18"/>
       <c r="D90" s="17" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E90" s="17" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F90" s="16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G90" s="16"/>
     </row>
@@ -8479,13 +8497,13 @@
       <c r="B91" s="18"/>
       <c r="C91" s="18"/>
       <c r="D91" s="16" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E91" s="17" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F91" s="16" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G91" s="16"/>
     </row>
@@ -8493,13 +8511,13 @@
       <c r="B92" s="18"/>
       <c r="C92" s="18"/>
       <c r="D92" s="16" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E92" s="17" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F92" s="16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G92" s="16"/>
     </row>
@@ -8507,13 +8525,13 @@
       <c r="B93" s="18"/>
       <c r="C93" s="18"/>
       <c r="D93" s="16" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E93" s="17" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F93" s="16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G93" s="16"/>
     </row>
@@ -8521,13 +8539,13 @@
       <c r="B94" s="18"/>
       <c r="C94" s="18"/>
       <c r="D94" s="17" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E94" s="17" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F94" s="16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G94" s="16"/>
     </row>
@@ -8535,13 +8553,13 @@
       <c r="B95" s="18"/>
       <c r="C95" s="18"/>
       <c r="D95" s="17" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E95" s="17" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F95" s="16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G95" s="16"/>
     </row>
@@ -8549,13 +8567,13 @@
       <c r="B96" s="18"/>
       <c r="C96" s="18"/>
       <c r="D96" s="16" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E96" s="17" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F96" s="16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G96" s="16"/>
     </row>
@@ -8563,13 +8581,13 @@
       <c r="B97" s="18"/>
       <c r="C97" s="18"/>
       <c r="D97" s="16" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E97" s="17" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F97" s="16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G97" s="16"/>
     </row>
@@ -8577,13 +8595,13 @@
       <c r="B98" s="18"/>
       <c r="C98" s="18"/>
       <c r="D98" s="16" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E98" s="17" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F98" s="16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G98" s="16"/>
     </row>
@@ -8591,13 +8609,13 @@
       <c r="B99" s="18"/>
       <c r="C99" s="18"/>
       <c r="D99" s="16" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E99" s="17" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F99" s="16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G99" s="16"/>
     </row>
@@ -8605,13 +8623,13 @@
       <c r="B100" s="18"/>
       <c r="C100" s="18"/>
       <c r="D100" s="16" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E100" s="17" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F100" s="16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G100" s="16"/>
     </row>
@@ -8619,13 +8637,13 @@
       <c r="B101" s="18"/>
       <c r="C101" s="18"/>
       <c r="D101" s="16" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E101" s="17" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F101" s="16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G101" s="16"/>
     </row>
@@ -8633,13 +8651,13 @@
       <c r="B102" s="18"/>
       <c r="C102" s="18"/>
       <c r="D102" s="16" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E102" s="17" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F102" s="16" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G102" s="16"/>
     </row>
@@ -8647,13 +8665,13 @@
       <c r="B103" s="18"/>
       <c r="C103" s="18"/>
       <c r="D103" s="16" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E103" s="17" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F103" s="16" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G103" s="16"/>
     </row>
@@ -8661,29 +8679,29 @@
       <c r="B104" s="18"/>
       <c r="C104" s="18"/>
       <c r="D104" s="16" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E104" s="17" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F104" s="16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G104" s="16"/>
     </row>
     <row r="105" ht="54" spans="2:7">
       <c r="B105" s="18"/>
       <c r="C105" s="21" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D105" s="16" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E105" s="17" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F105" s="16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G105" s="16"/>
     </row>
@@ -8691,13 +8709,13 @@
       <c r="B106" s="18"/>
       <c r="C106" s="18"/>
       <c r="D106" s="17" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E106" s="17" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F106" s="16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G106" s="16"/>
     </row>
@@ -8705,13 +8723,13 @@
       <c r="B107" s="18"/>
       <c r="C107" s="18"/>
       <c r="D107" s="16" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E107" s="17" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F107" s="16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G107" s="16"/>
     </row>
@@ -8719,13 +8737,13 @@
       <c r="B108" s="18"/>
       <c r="C108" s="18"/>
       <c r="D108" s="16" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E108" s="17" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F108" s="16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G108" s="16"/>
     </row>
@@ -8733,13 +8751,13 @@
       <c r="B109" s="18"/>
       <c r="C109" s="18"/>
       <c r="D109" s="16" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E109" s="17" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F109" s="16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G109" s="16"/>
     </row>
@@ -8747,13 +8765,13 @@
       <c r="B110" s="18"/>
       <c r="C110" s="18"/>
       <c r="D110" s="16" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E110" s="17" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F110" s="16" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G110" s="16"/>
     </row>
@@ -8761,13 +8779,13 @@
       <c r="B111" s="18"/>
       <c r="C111" s="18"/>
       <c r="D111" s="16" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E111" s="17" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F111" s="16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G111" s="16"/>
     </row>
@@ -8775,13 +8793,13 @@
       <c r="B112" s="18"/>
       <c r="C112" s="18"/>
       <c r="D112" s="16" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E112" s="17" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F112" s="16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G112" s="16"/>
     </row>
@@ -8789,13 +8807,13 @@
       <c r="B113" s="18"/>
       <c r="C113" s="18"/>
       <c r="D113" s="16" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E113" s="17" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F113" s="16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G113" s="16"/>
     </row>
@@ -8803,13 +8821,13 @@
       <c r="B114" s="18"/>
       <c r="C114" s="18"/>
       <c r="D114" s="16" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E114" s="17" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F114" s="16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G114" s="16"/>
     </row>
@@ -8817,13 +8835,13 @@
       <c r="B115" s="18"/>
       <c r="C115" s="18"/>
       <c r="D115" s="16" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E115" s="17" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F115" s="16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G115" s="16"/>
     </row>
@@ -8831,29 +8849,29 @@
       <c r="B116" s="18"/>
       <c r="C116" s="18"/>
       <c r="D116" s="17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E116" s="17" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F116" s="16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G116" s="16"/>
     </row>
     <row r="117" ht="27" spans="2:7">
       <c r="B117" s="18"/>
       <c r="C117" s="18" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D117" s="16" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E117" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F117" s="16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G117" s="16"/>
     </row>
@@ -8861,13 +8879,13 @@
       <c r="B118" s="18"/>
       <c r="C118" s="18"/>
       <c r="D118" s="16" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E118" s="17" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F118" s="16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G118" s="16"/>
     </row>
@@ -8875,13 +8893,13 @@
       <c r="B119" s="18"/>
       <c r="C119" s="18"/>
       <c r="D119" s="16" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E119" s="17" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F119" s="16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G119" s="16"/>
     </row>
@@ -8889,13 +8907,13 @@
       <c r="B120" s="18"/>
       <c r="C120" s="18"/>
       <c r="D120" s="17" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E120" s="17" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F120" s="16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G120" s="16"/>
     </row>
@@ -8903,13 +8921,13 @@
       <c r="B121" s="18"/>
       <c r="C121" s="18"/>
       <c r="D121" s="17" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E121" s="17" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F121" s="16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G121" s="16"/>
     </row>
@@ -8917,13 +8935,13 @@
       <c r="B122" s="18"/>
       <c r="C122" s="18"/>
       <c r="D122" s="17" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E122" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F122" s="16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G122" s="16"/>
     </row>
@@ -8931,13 +8949,13 @@
       <c r="B123" s="18"/>
       <c r="C123" s="18"/>
       <c r="D123" s="17" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E123" s="17" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F123" s="16" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G123" s="16"/>
     </row>
@@ -8945,10 +8963,10 @@
       <c r="B124" s="18"/>
       <c r="C124" s="18"/>
       <c r="D124" s="17" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E124" s="17" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F124" s="16"/>
       <c r="G124" s="16"/>
@@ -8957,10 +8975,10 @@
       <c r="B125" s="18"/>
       <c r="C125" s="18"/>
       <c r="D125" s="17" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E125" s="17" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F125" s="16"/>
       <c r="G125" s="16"/>
@@ -8969,10 +8987,10 @@
       <c r="B126" s="18"/>
       <c r="C126" s="18"/>
       <c r="D126" s="17" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E126" s="17" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F126" s="16"/>
       <c r="G126" s="16"/>
@@ -8981,29 +8999,29 @@
       <c r="B127" s="18"/>
       <c r="C127" s="18"/>
       <c r="D127" s="16" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E127" s="17" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F127" s="16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G127" s="16"/>
     </row>
     <row r="128" ht="54" spans="2:7">
       <c r="B128" s="18"/>
       <c r="C128" s="18" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D128" s="16" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E128" s="17" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F128" s="16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G128" s="16"/>
     </row>
@@ -9011,13 +9029,13 @@
       <c r="B129" s="18"/>
       <c r="C129" s="18"/>
       <c r="D129" s="16" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E129" s="17" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F129" s="16" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G129" s="16"/>
     </row>
@@ -9025,13 +9043,13 @@
       <c r="B130" s="18"/>
       <c r="C130" s="18"/>
       <c r="D130" s="16" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E130" s="17" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F130" s="16" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G130" s="16"/>
     </row>
@@ -9039,13 +9057,13 @@
       <c r="B131" s="18"/>
       <c r="C131" s="18"/>
       <c r="D131" s="16" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E131" s="17" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F131" s="16" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G131" s="16"/>
     </row>
@@ -9053,13 +9071,13 @@
       <c r="B132" s="18"/>
       <c r="C132" s="18"/>
       <c r="D132" s="16" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E132" s="17" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F132" s="16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G132" s="16"/>
     </row>
@@ -9067,13 +9085,13 @@
       <c r="B133" s="18"/>
       <c r="C133" s="18"/>
       <c r="D133" s="17" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E133" s="17" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F133" s="16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G133" s="16"/>
     </row>
@@ -9081,13 +9099,13 @@
       <c r="B134" s="18"/>
       <c r="C134" s="18"/>
       <c r="D134" s="16" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E134" s="17" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F134" s="16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G134" s="16"/>
     </row>
@@ -9095,13 +9113,13 @@
       <c r="B135" s="18"/>
       <c r="C135" s="18"/>
       <c r="D135" s="16" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E135" s="17" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F135" s="16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G135" s="16"/>
     </row>
@@ -9109,45 +9127,45 @@
       <c r="B136" s="18"/>
       <c r="C136" s="18"/>
       <c r="D136" s="16" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E136" s="17" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F136" s="16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G136" s="16"/>
     </row>
     <row r="137" ht="310.5" spans="2:7">
       <c r="B137" s="18"/>
       <c r="C137" s="15" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D137" s="16" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E137" s="17" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F137" s="16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G137" s="17" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="138" ht="81" spans="2:7">
       <c r="B138" s="18"/>
       <c r="C138" s="19"/>
       <c r="D138" s="16" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E138" s="17" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F138" s="16" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G138" s="17"/>
     </row>
@@ -9155,29 +9173,29 @@
       <c r="B139" s="18"/>
       <c r="C139" s="19"/>
       <c r="D139" s="16" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E139" s="17" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F139" s="16" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G139" s="17"/>
     </row>
     <row r="140" ht="94.5" spans="2:7">
       <c r="B140" s="18"/>
       <c r="C140" s="15" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E140" s="17" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F140" s="16" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G140" s="17"/>
     </row>
@@ -9185,13 +9203,13 @@
       <c r="B141" s="18"/>
       <c r="C141" s="19"/>
       <c r="D141" s="17" t="s">
+        <v>494</v>
+      </c>
+      <c r="E141" s="17" t="s">
+        <v>495</v>
+      </c>
+      <c r="F141" s="16" t="s">
         <v>493</v>
-      </c>
-      <c r="E141" s="17" t="s">
-        <v>494</v>
-      </c>
-      <c r="F141" s="16" t="s">
-        <v>492</v>
       </c>
       <c r="G141" s="17"/>
     </row>
@@ -9199,13 +9217,13 @@
       <c r="B142" s="18"/>
       <c r="C142" s="19"/>
       <c r="D142" s="16" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E142" s="17" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F142" s="16" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G142" s="17"/>
     </row>
@@ -9213,29 +9231,29 @@
       <c r="B143" s="18"/>
       <c r="C143" s="20"/>
       <c r="D143" s="16" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E143" s="17" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F143" s="16" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G143" s="17"/>
     </row>
     <row r="144" ht="40.5" spans="2:7">
       <c r="B144" s="18"/>
       <c r="C144" s="14" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D144" s="16" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E144" s="17" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F144" s="16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G144" s="16"/>
     </row>
@@ -9243,13 +9261,13 @@
       <c r="B145" s="18"/>
       <c r="C145" s="18"/>
       <c r="D145" s="16" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E145" s="17" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F145" s="16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G145" s="16"/>
     </row>
@@ -9257,13 +9275,13 @@
       <c r="B146" s="18"/>
       <c r="C146" s="18"/>
       <c r="D146" s="16" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E146" s="17" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F146" s="16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G146" s="16"/>
     </row>
@@ -9271,13 +9289,13 @@
       <c r="B147" s="18"/>
       <c r="C147" s="18"/>
       <c r="D147" s="17" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E147" s="17" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F147" s="16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G147" s="16"/>
     </row>
@@ -9285,292 +9303,292 @@
       <c r="B148" s="18"/>
       <c r="C148" s="18"/>
       <c r="D148" s="17" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E148" s="17" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F148" s="16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G148" s="16"/>
     </row>
     <row r="149" ht="94.5" spans="2:7">
       <c r="B149" s="22" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C149" s="22" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D149" s="23" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E149" s="24" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F149" s="23" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G149" s="24" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="150" ht="94.5" spans="2:7">
       <c r="B150" s="22"/>
       <c r="C150" s="22"/>
       <c r="D150" s="23" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E150" s="24" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F150" s="23" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G150" s="24" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="151" ht="132" customHeight="1" spans="2:7">
       <c r="B151" s="22"/>
       <c r="C151" s="22"/>
       <c r="D151" s="23" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E151" s="24" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F151" s="23" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G151" s="24" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="152" ht="128" customHeight="1" spans="2:7">
       <c r="B152" s="22"/>
       <c r="C152" s="22"/>
       <c r="D152" s="23" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E152" s="24" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F152" s="23" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G152" s="24" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="153" ht="216" spans="2:7">
       <c r="B153" s="22"/>
       <c r="C153" s="22"/>
       <c r="D153" s="23" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E153" s="24" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F153" s="23" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G153" s="25" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="154" ht="108" spans="2:7">
       <c r="B154" s="22"/>
       <c r="C154" s="22"/>
       <c r="D154" s="23" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E154" s="24" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F154" s="23" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G154" s="24" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="155" ht="205" customHeight="1" spans="2:7">
       <c r="B155" s="22"/>
       <c r="C155" s="22"/>
       <c r="D155" s="23" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E155" s="24" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F155" s="23" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G155" s="24" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="156" ht="176" customHeight="1" spans="2:7">
       <c r="B156" s="22"/>
       <c r="C156" s="22"/>
       <c r="D156" s="23" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E156" s="23" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F156" s="23" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G156" s="24" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="157" ht="142" customHeight="1" spans="2:7">
       <c r="B157" s="22"/>
       <c r="C157" s="22"/>
       <c r="D157" s="23" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E157" s="26" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="F157" s="23"/>
       <c r="G157" s="24" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="158" ht="196" customHeight="1" spans="2:7">
       <c r="B158" s="22"/>
       <c r="C158" s="22" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D158" s="23" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E158" s="24" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F158" s="23" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G158" s="24" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="159" ht="121.5" spans="2:7">
       <c r="B159" s="22"/>
       <c r="C159" s="22"/>
       <c r="D159" s="23" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E159" s="24" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F159" s="23" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G159" s="24" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="160" ht="145" customHeight="1" spans="2:7">
       <c r="B160" s="22"/>
       <c r="C160" s="22"/>
       <c r="D160" s="23" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E160" s="24" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F160" s="23"/>
       <c r="G160" s="24" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="161" ht="180" customHeight="1" spans="2:7">
       <c r="B161" s="22"/>
       <c r="C161" s="22" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D161" s="23" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E161" s="24" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F161" s="23" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G161" s="24" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="162" ht="232" customHeight="1" spans="2:7">
       <c r="B162" s="22"/>
       <c r="C162" s="22"/>
       <c r="D162" s="23" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E162" s="24" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F162" s="23" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G162" s="24" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="163" ht="181" customHeight="1" spans="2:7">
       <c r="B163" s="22"/>
       <c r="C163" s="22"/>
       <c r="D163" s="23" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E163" s="24" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F163" s="23" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G163" s="24" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="164" ht="201" customHeight="1" spans="2:7">
       <c r="B164" s="22"/>
       <c r="C164" s="22" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D164" s="23" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E164" s="26" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="F164" s="23" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G164" s="24" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="165" ht="193" customHeight="1" spans="2:7">
       <c r="B165" s="22"/>
       <c r="C165" s="22"/>
       <c r="D165" s="23" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E165" s="26" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F165" s="23" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G165" s="24" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="166" ht="216" spans="2:7">
@@ -9579,67 +9597,67 @@
         <v>121</v>
       </c>
       <c r="D166" s="23" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E166" s="24" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="F166" s="23" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G166" s="24" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="167" ht="120" customHeight="1" spans="2:7">
       <c r="B167" s="22"/>
       <c r="C167" s="22" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D167" s="23" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E167" s="26" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F167" s="23" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G167" s="24" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="168" ht="102" customHeight="1" spans="2:7">
       <c r="B168" s="22"/>
       <c r="C168" s="22"/>
       <c r="D168" s="23" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E168" s="24" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F168" s="23" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G168" s="24" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="169" ht="94.5" spans="2:7">
       <c r="B169" s="27" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C169" s="27" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D169" s="28" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E169" s="29" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F169" s="28" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G169" s="29"/>
     </row>
@@ -9647,13 +9665,13 @@
       <c r="B170" s="27"/>
       <c r="C170" s="27"/>
       <c r="D170" s="28" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E170" s="29" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F170" s="28" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G170" s="29"/>
     </row>
@@ -9661,13 +9679,13 @@
       <c r="B171" s="27"/>
       <c r="C171" s="27"/>
       <c r="D171" s="28" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E171" s="29" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F171" s="28" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G171" s="29"/>
     </row>
@@ -9675,13 +9693,13 @@
       <c r="B172" s="27"/>
       <c r="C172" s="27"/>
       <c r="D172" s="28" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E172" s="29" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F172" s="28" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G172" s="29"/>
     </row>
@@ -9689,13 +9707,13 @@
       <c r="B173" s="27"/>
       <c r="C173" s="27"/>
       <c r="D173" s="28" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E173" s="29" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F173" s="28" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G173" s="30"/>
     </row>
@@ -9703,13 +9721,13 @@
       <c r="B174" s="27"/>
       <c r="C174" s="27"/>
       <c r="D174" s="28" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E174" s="29" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F174" s="28" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G174" s="29"/>
     </row>
@@ -9717,13 +9735,13 @@
       <c r="B175" s="27"/>
       <c r="C175" s="27"/>
       <c r="D175" s="28" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E175" s="29" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F175" s="28" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G175" s="29"/>
     </row>
@@ -9731,13 +9749,13 @@
       <c r="B176" s="27"/>
       <c r="C176" s="27"/>
       <c r="D176" s="28" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E176" s="28" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F176" s="28" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G176" s="29"/>
     </row>
@@ -9745,10 +9763,10 @@
       <c r="B177" s="27"/>
       <c r="C177" s="27"/>
       <c r="D177" s="28" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E177" s="31" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="F177" s="28"/>
       <c r="G177" s="29"/>
@@ -9756,16 +9774,16 @@
     <row r="178" ht="27" spans="2:7">
       <c r="B178" s="27"/>
       <c r="C178" s="27" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D178" s="28" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E178" s="29" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F178" s="28" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G178" s="29"/>
     </row>
@@ -9773,13 +9791,13 @@
       <c r="B179" s="27"/>
       <c r="C179" s="27"/>
       <c r="D179" s="28" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E179" s="29" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F179" s="28" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G179" s="29"/>
     </row>
@@ -9787,10 +9805,10 @@
       <c r="B180" s="27"/>
       <c r="C180" s="27"/>
       <c r="D180" s="28" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E180" s="29" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F180" s="28"/>
       <c r="G180" s="29"/>
@@ -9798,16 +9816,16 @@
     <row r="181" ht="27" spans="2:7">
       <c r="B181" s="27"/>
       <c r="C181" s="27" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D181" s="28" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E181" s="29" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F181" s="28" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G181" s="29"/>
     </row>
@@ -9815,13 +9833,13 @@
       <c r="B182" s="27"/>
       <c r="C182" s="27"/>
       <c r="D182" s="28" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E182" s="29" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F182" s="28" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G182" s="29"/>
     </row>
@@ -9829,29 +9847,29 @@
       <c r="B183" s="27"/>
       <c r="C183" s="27"/>
       <c r="D183" s="28" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E183" s="29" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F183" s="28" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G183" s="29"/>
     </row>
     <row r="184" ht="54" spans="2:7">
       <c r="B184" s="27"/>
       <c r="C184" s="27" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D184" s="28" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E184" s="31" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="F184" s="28" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G184" s="29"/>
     </row>
@@ -9859,13 +9877,13 @@
       <c r="B185" s="27"/>
       <c r="C185" s="27"/>
       <c r="D185" s="28" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E185" s="31" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F185" s="28" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G185" s="29"/>
     </row>
@@ -9875,29 +9893,29 @@
         <v>121</v>
       </c>
       <c r="D186" s="28" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E186" s="29" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F186" s="28" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G186" s="29"/>
     </row>
     <row r="187" ht="40.5" spans="2:7">
       <c r="B187" s="27"/>
       <c r="C187" s="27" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D187" s="28" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E187" s="31" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F187" s="28" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G187" s="29"/>
     </row>
@@ -9905,13 +9923,13 @@
       <c r="B188" s="27"/>
       <c r="C188" s="27"/>
       <c r="D188" s="28" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E188" s="29" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F188" s="28" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G188" s="29"/>
     </row>
@@ -9990,15 +10008,15 @@
   <sheetData>
     <row r="2" ht="17.6" spans="3:9">
       <c r="C2" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -10006,71 +10024,71 @@
     <row r="3" ht="17.6" spans="3:9">
       <c r="C3" s="1"/>
       <c r="D3" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>568</v>
-      </c>
       <c r="I3" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="4" spans="3:9">
       <c r="C4" s="3" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D4" s="3">
         <v>6</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5">
         <v>5</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="I4" s="5"/>
     </row>
     <row r="5" spans="3:9">
       <c r="C5" s="3" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D5" s="3">
         <v>5</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5">
         <v>10</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="3:9">
       <c r="C6" s="5" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D6" s="5">
         <v>3</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -10079,13 +10097,13 @@
     </row>
     <row r="7" spans="3:9">
       <c r="C7" s="5" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D7" s="5">
         <v>5</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -10094,32 +10112,32 @@
     </row>
     <row r="8" spans="3:9">
       <c r="C8" s="5" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D8" s="5">
         <v>3</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5">
         <v>5</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="I8" s="5"/>
     </row>
     <row r="9" spans="3:9">
       <c r="C9" s="5" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D9" s="5">
         <v>4</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -10128,13 +10146,13 @@
     </row>
     <row r="10" spans="3:9">
       <c r="C10" s="5" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D10" s="5">
         <v>3</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -10143,13 +10161,13 @@
     </row>
     <row r="11" spans="3:9">
       <c r="C11" s="5" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D11" s="5">
         <v>3</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -10158,13 +10176,13 @@
     </row>
     <row r="12" spans="3:9">
       <c r="C12" s="5" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D12" s="5">
         <v>4</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -10173,7 +10191,7 @@
     </row>
     <row r="13" spans="3:9">
       <c r="C13" s="7" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="4"/>
@@ -10182,13 +10200,13 @@
         <v>7</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="I13" s="5"/>
     </row>
     <row r="14" spans="3:9">
       <c r="C14" s="7" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="4"/>
@@ -10197,13 +10215,13 @@
         <v>5</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="I14" s="5"/>
     </row>
     <row r="15" spans="3:9">
       <c r="C15" s="7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="4"/>
@@ -10212,13 +10230,13 @@
         <v>4</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="I15" s="5"/>
     </row>
     <row r="16" customFormat="1" spans="3:9">
       <c r="C16" s="7" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="4"/>
@@ -10227,13 +10245,13 @@
         <v>5</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="I16" s="5"/>
     </row>
     <row r="17" spans="3:9">
       <c r="C17" s="7" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="4"/>
@@ -10242,45 +10260,45 @@
         <v>8</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="I17" s="5"/>
     </row>
     <row r="18" spans="3:9">
       <c r="C18" s="5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D18" s="5">
         <v>7</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5">
         <v>10</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="I18" s="5"/>
     </row>
     <row r="19" spans="3:9">
       <c r="C19" s="5" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D19" s="5">
         <v>15</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5">
         <v>10</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="I19" s="5"/>
     </row>
@@ -10292,14 +10310,14 @@
         <v>3</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5">
         <v>4</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="I20" s="5"/>
     </row>
@@ -10311,14 +10329,14 @@
         <v>15</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5">
         <v>7</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="I21" s="5"/>
     </row>
@@ -10330,33 +10348,33 @@
         <v>3</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5">
         <v>12</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="I22" s="5"/>
     </row>
     <row r="23" spans="3:9">
       <c r="C23" s="5" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5">
         <v>4</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="I23" s="5"/>
     </row>
